--- a/result/TrailATR/summary_NSDQ_M30_2020-2024_0.xlsx
+++ b/result/TrailATR/summary_NSDQ_M30_2020-2024_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,10 +598,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -620,120 +620,120 @@
         <v>2024</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J3" t="n">
         <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>3125.799999999927</v>
+        <v>4584.799999999901</v>
       </c>
       <c r="L3" t="n">
-        <v>-962.900000000036</v>
+        <v>-521.3000000000447</v>
       </c>
       <c r="M3" t="n">
-        <v>2440</v>
+        <v>2370</v>
       </c>
       <c r="N3" t="n">
-        <v>4088.699999999963</v>
+        <v>5106.099999999946</v>
       </c>
       <c r="O3" t="n">
-        <v>-402.5</v>
+        <v>-413</v>
       </c>
       <c r="P3" t="n">
-        <v>1479.599999999999</v>
+        <v>1232</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67569672131146</v>
+        <v>2.15447257383964</v>
       </c>
       <c r="R3" t="n">
-        <v>117.0823860295264</v>
+        <v>116.7784974889499</v>
       </c>
       <c r="S3" t="n">
-        <v>-15.80000000000109</v>
+        <v>-17.14999999999964</v>
       </c>
       <c r="T3" t="n">
-        <v>0.185655737704918</v>
+        <v>0.1860759493670886</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G4" t="n">
         <v>15</v>
       </c>
-      <c r="B4" t="n">
-        <v>23</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>NSDQ</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>M30</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G4" t="n">
-        <v>25</v>
-      </c>
       <c r="H4" t="n">
-        <v>3.600000000000001</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>1890.700000000008</v>
+        <v>3125.799999999927</v>
       </c>
       <c r="L4" t="n">
-        <v>-1088.999999999978</v>
+        <v>-962.900000000036</v>
       </c>
       <c r="M4" t="n">
-        <v>2609</v>
+        <v>2440</v>
       </c>
       <c r="N4" t="n">
-        <v>2979.699999999986</v>
+        <v>4088.699999999963</v>
       </c>
       <c r="O4" t="n">
-        <v>-443.5</v>
+        <v>-402.5</v>
       </c>
       <c r="P4" t="n">
-        <v>1262.299999999999</v>
+        <v>1479.599999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.142085090072819</v>
+        <v>1.67569672131146</v>
       </c>
       <c r="R4" t="n">
-        <v>113.2558065409383</v>
+        <v>117.0823860295264</v>
       </c>
       <c r="S4" t="n">
-        <v>-16.5</v>
+        <v>-15.80000000000109</v>
       </c>
       <c r="T4" t="n">
-        <v>0.189344576466079</v>
+        <v>0.185655737704918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -752,54 +752,54 @@
         <v>2024</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>1320.999999999887</v>
+        <v>1890.700000000008</v>
       </c>
       <c r="L5" t="n">
-        <v>-585.7999999999993</v>
+        <v>-1088.999999999978</v>
       </c>
       <c r="M5" t="n">
-        <v>2422</v>
+        <v>2609</v>
       </c>
       <c r="N5" t="n">
-        <v>1906.799999999886</v>
+        <v>2979.699999999986</v>
       </c>
       <c r="O5" t="n">
         <v>-443.5</v>
       </c>
       <c r="P5" t="n">
-        <v>1189.700000000001</v>
+        <v>1262.299999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7872832369941728</v>
+        <v>1.142085090072819</v>
       </c>
       <c r="R5" t="n">
-        <v>115.4691864415554</v>
+        <v>113.2558065409383</v>
       </c>
       <c r="S5" t="n">
-        <v>-17.40000000000055</v>
+        <v>-16.5</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1907514450867052</v>
+        <v>0.189344576466079</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -818,55 +818,55 @@
         <v>2024</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="I6" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J6" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>1264.599999999897</v>
+        <v>1452.500000000115</v>
       </c>
       <c r="L6" t="n">
-        <v>-1777.800000000007</v>
+        <v>-3902.100000000009</v>
       </c>
       <c r="M6" t="n">
-        <v>2702</v>
+        <v>3381</v>
       </c>
       <c r="N6" t="n">
-        <v>3042.399999999904</v>
+        <v>5354.600000000124</v>
       </c>
       <c r="O6" t="n">
-        <v>-489.1999999999998</v>
+        <v>-898.6999999999998</v>
       </c>
       <c r="P6" t="n">
-        <v>1290.799999999999</v>
+        <v>1246.799999999999</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.125980754996263</v>
+        <v>1.583732623484213</v>
       </c>
       <c r="R6" t="n">
-        <v>113.6812941433276</v>
+        <v>95.35166308228047</v>
       </c>
       <c r="S6" t="n">
-        <v>-17.29999999999927</v>
+        <v>-11.10000000000036</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1994818652849741</v>
+        <v>0.2380952380952381</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>NSDQ</t>
@@ -884,54 +884,54 @@
         <v>2024</v>
       </c>
       <c r="G7" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>-3516.099999999999</v>
+        <v>1320.999999999887</v>
       </c>
       <c r="L7" t="n">
-        <v>-4001.299999999977</v>
+        <v>-585.7999999999993</v>
       </c>
       <c r="M7" t="n">
-        <v>3461</v>
+        <v>2422</v>
       </c>
       <c r="N7" t="n">
-        <v>485.199999999978</v>
+        <v>1906.799999999886</v>
       </c>
       <c r="O7" t="n">
-        <v>-404.4000000000005</v>
+        <v>-443.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1135.700000000001</v>
+        <v>1189.700000000001</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1401906963305339</v>
+        <v>0.7872832369941728</v>
       </c>
       <c r="R7" t="n">
-        <v>105.4257883011169</v>
+        <v>115.4691864415554</v>
       </c>
       <c r="S7" t="n">
-        <v>-17</v>
+        <v>-17.40000000000055</v>
       </c>
       <c r="T7" t="n">
-        <v>0.235770008668015</v>
+        <v>0.1907514450867052</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -950,54 +950,54 @@
         <v>2024</v>
       </c>
       <c r="G8" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H8" t="n">
-        <v>3.600000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K8" t="n">
-        <v>-3538.900000000061</v>
+        <v>1264.599999999897</v>
       </c>
       <c r="L8" t="n">
-        <v>-3198.100000000008</v>
+        <v>-1777.800000000007</v>
       </c>
       <c r="M8" t="n">
-        <v>2746</v>
+        <v>2702</v>
       </c>
       <c r="N8" t="n">
-        <v>-340.8000000000529</v>
+        <v>3042.399999999904</v>
       </c>
       <c r="O8" t="n">
-        <v>-898.6999999999998</v>
+        <v>-489.1999999999998</v>
       </c>
       <c r="P8" t="n">
-        <v>1157.5</v>
+        <v>1290.799999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.1241077931536974</v>
+        <v>1.125980754996263</v>
       </c>
       <c r="R8" t="n">
-        <v>111.9087537411532</v>
+        <v>113.6812941433276</v>
       </c>
       <c r="S8" t="n">
-        <v>-17.95000000000073</v>
+        <v>-17.29999999999927</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2002913328477786</v>
+        <v>0.1994818652849741</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1019,51 +1019,51 @@
         <v>85</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
-        <v>-3737.600000000153</v>
+        <v>1160.599999999949</v>
       </c>
       <c r="L9" t="n">
-        <v>-2701.600000000083</v>
+        <v>-3191.399999999997</v>
       </c>
       <c r="M9" t="n">
-        <v>2231</v>
+        <v>2950</v>
       </c>
       <c r="N9" t="n">
-        <v>-1036.00000000007</v>
+        <v>4351.999999999945</v>
       </c>
       <c r="O9" t="n">
-        <v>-413</v>
+        <v>-490.5</v>
       </c>
       <c r="P9" t="n">
-        <v>1552.7</v>
+        <v>1135.700000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.464365755266728</v>
+        <v>1.475254237288117</v>
       </c>
       <c r="R9" t="n">
-        <v>119.6836318896732</v>
+        <v>112.2890765678514</v>
       </c>
       <c r="S9" t="n">
-        <v>-17.19999999999891</v>
+        <v>-17.30000000000109</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1730165844912595</v>
+        <v>0.2257627118644068</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1082,54 +1082,54 @@
         <v>2024</v>
       </c>
       <c r="G10" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H10" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>-4356.999999999907</v>
+        <v>745.0000000000091</v>
       </c>
       <c r="L10" t="n">
-        <v>-3018.599999999981</v>
+        <v>-2217.000000000007</v>
       </c>
       <c r="M10" t="n">
-        <v>3200</v>
+        <v>3367</v>
       </c>
       <c r="N10" t="n">
-        <v>-1338.399999999926</v>
+        <v>2962.000000000016</v>
       </c>
       <c r="O10" t="n">
         <v>-416.7999999999993</v>
       </c>
       <c r="P10" t="n">
-        <v>1456.499999999999</v>
+        <v>1276.699999999999</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.4182499999999769</v>
+        <v>0.8797148797148846</v>
       </c>
       <c r="R10" t="n">
-        <v>96.08835627008872</v>
+        <v>93.91060872343836</v>
       </c>
       <c r="S10" t="n">
-        <v>-12.90000000000146</v>
+        <v>-12.20000000000073</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2140625</v>
+        <v>0.2200772200772201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1148,54 +1148,54 @@
         <v>2024</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="I11" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="J11" t="n">
         <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>-4499.399999999952</v>
+        <v>216.9000000000542</v>
       </c>
       <c r="L11" t="n">
-        <v>-2703.899999999972</v>
+        <v>-2945.999999999994</v>
       </c>
       <c r="M11" t="n">
-        <v>3089</v>
+        <v>3119</v>
       </c>
       <c r="N11" t="n">
-        <v>-1795.49999999998</v>
+        <v>3162.900000000048</v>
       </c>
       <c r="O11" t="n">
-        <v>-336.7000000000007</v>
+        <v>-416.7999999999993</v>
       </c>
       <c r="P11" t="n">
-        <v>1263.799999999999</v>
+        <v>1456.499999999999</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.5812560699255358</v>
+        <v>1.014075024046184</v>
       </c>
       <c r="R11" t="n">
-        <v>101.0269381342823</v>
+        <v>97.95815782050286</v>
       </c>
       <c r="S11" t="n">
-        <v>-15.5</v>
+        <v>-12</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2071867918420201</v>
+        <v>0.2228278294325104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1214,54 +1214,54 @@
         <v>2024</v>
       </c>
       <c r="G12" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H12" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="I12" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>-4635.999999999844</v>
+        <v>-704.2000000000062</v>
       </c>
       <c r="L12" t="n">
-        <v>-2918.999999999951</v>
+        <v>-2021.500000000005</v>
       </c>
       <c r="M12" t="n">
-        <v>4219</v>
+        <v>3477</v>
       </c>
       <c r="N12" t="n">
-        <v>-1716.999999999893</v>
+        <v>1317.299999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>-433.6999999999998</v>
+        <v>-416.7999999999993</v>
       </c>
       <c r="P12" t="n">
-        <v>824</v>
+        <v>1276.699999999999</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.406968475942141</v>
+        <v>0.3788610871440895</v>
       </c>
       <c r="R12" t="n">
-        <v>93.41164897277503</v>
+        <v>91.42235820728516</v>
       </c>
       <c r="S12" t="n">
-        <v>-15.69999999999891</v>
+        <v>-12.10000000000036</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2557478075373311</v>
+        <v>0.2191544434857636</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1280,54 +1280,54 @@
         <v>2024</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="I13" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
-        <v>-6275.000000000065</v>
+        <v>-827.1000000000331</v>
       </c>
       <c r="L13" t="n">
-        <v>-3141.000000000031</v>
+        <v>-2252.199999999994</v>
       </c>
       <c r="M13" t="n">
-        <v>3893</v>
+        <v>6069</v>
       </c>
       <c r="N13" t="n">
-        <v>-3134.000000000035</v>
+        <v>1425.099999999961</v>
       </c>
       <c r="O13" t="n">
-        <v>-443.5</v>
+        <v>-453.8000000000002</v>
       </c>
       <c r="P13" t="n">
-        <v>1202.299999999999</v>
+        <v>753.1000000000004</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.805034677626518</v>
+        <v>0.2348162794529513</v>
       </c>
       <c r="R13" t="n">
-        <v>95.31798771884117</v>
+        <v>78.48815785371127</v>
       </c>
       <c r="S13" t="n">
-        <v>-14.39999999999964</v>
+        <v>-12</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2070382738248138</v>
+        <v>0.2644587246663371</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1346,54 +1346,54 @@
         <v>2024</v>
       </c>
       <c r="G14" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="I14" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>-7939.400000000085</v>
+        <v>-1057.800000000025</v>
       </c>
       <c r="L14" t="n">
-        <v>-4940.500000000037</v>
+        <v>-4027.500000000049</v>
       </c>
       <c r="M14" t="n">
-        <v>3194</v>
+        <v>3519</v>
       </c>
       <c r="N14" t="n">
-        <v>-2998.900000000048</v>
+        <v>2969.700000000024</v>
       </c>
       <c r="O14" t="n">
-        <v>-404.4000000000005</v>
+        <v>-898.6999999999998</v>
       </c>
       <c r="P14" t="n">
-        <v>871.5</v>
+        <v>1246.799999999999</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.9389167188478547</v>
+        <v>0.8439045183290776</v>
       </c>
       <c r="R14" t="n">
-        <v>108.6788712431318</v>
+        <v>93.1349647634071</v>
       </c>
       <c r="S14" t="n">
-        <v>-18</v>
+        <v>-11.5</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2523481527864747</v>
+        <v>0.226768968456948</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1412,54 +1412,54 @@
         <v>2024</v>
       </c>
       <c r="G15" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I15" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="J15" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K15" t="n">
-        <v>-8723.999999999971</v>
+        <v>-1133.400000000038</v>
       </c>
       <c r="L15" t="n">
-        <v>-4361.999999999985</v>
+        <v>-1763.400000000015</v>
       </c>
       <c r="M15" t="n">
-        <v>3229</v>
+        <v>5591</v>
       </c>
       <c r="N15" t="n">
-        <v>-4361.999999999985</v>
+        <v>629.9999999999773</v>
       </c>
       <c r="O15" t="n">
-        <v>-898.6999999999998</v>
+        <v>-453.8000000000002</v>
       </c>
       <c r="P15" t="n">
-        <v>1291.099999999999</v>
+        <v>729.6999999999998</v>
       </c>
       <c r="Q15" t="n">
-        <v>-1.350882626200058</v>
+        <v>0.1126810946163436</v>
       </c>
       <c r="R15" t="n">
-        <v>101.3111578864344</v>
+        <v>79.526490054858</v>
       </c>
       <c r="S15" t="n">
-        <v>-16.10000000000036</v>
+        <v>-11.89999999999964</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1972746980489316</v>
+        <v>0.252727597925237</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1478,54 +1478,54 @@
         <v>2024</v>
       </c>
       <c r="G16" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I16" t="n">
         <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K16" t="n">
-        <v>-9114.100000000009</v>
+        <v>-2098.599999999917</v>
       </c>
       <c r="L16" t="n">
-        <v>-6490.300000000012</v>
+        <v>-4669.699999999943</v>
       </c>
       <c r="M16" t="n">
-        <v>2531</v>
+        <v>4748</v>
       </c>
       <c r="N16" t="n">
-        <v>-2623.799999999997</v>
+        <v>2571.100000000027</v>
       </c>
       <c r="O16" t="n">
-        <v>-354.7000000000007</v>
+        <v>-404.4000000000005</v>
       </c>
       <c r="P16" t="n">
-        <v>867.3999999999996</v>
+        <v>868.7999999999993</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1.036665349664163</v>
+        <v>0.5415122156697613</v>
       </c>
       <c r="R16" t="n">
-        <v>118.6552318476787</v>
+        <v>90.48327197880951</v>
       </c>
       <c r="S16" t="n">
-        <v>-17.89999999999964</v>
+        <v>-13.60000000000036</v>
       </c>
       <c r="T16" t="n">
-        <v>0.364282892137495</v>
+        <v>0.3519376579612468</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1544,112 +1544,2686 @@
         <v>2024</v>
       </c>
       <c r="G17" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="I17" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J17" t="n">
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>-9341.599999999891</v>
+        <v>-2322.49999999998</v>
       </c>
       <c r="L17" t="n">
-        <v>-4674.299999999944</v>
+        <v>-2793.999999999985</v>
       </c>
       <c r="M17" t="n">
-        <v>2821</v>
+        <v>3375</v>
       </c>
       <c r="N17" t="n">
-        <v>-4667.299999999947</v>
+        <v>471.5000000000045</v>
       </c>
       <c r="O17" t="n">
-        <v>-336.7000000000007</v>
+        <v>-416.7999999999993</v>
       </c>
       <c r="P17" t="n">
-        <v>1262</v>
+        <v>1263.199999999999</v>
       </c>
       <c r="Q17" t="n">
-        <v>-1.654484225451949</v>
+        <v>0.1397037037037051</v>
       </c>
       <c r="R17" t="n">
-        <v>105.262085960673</v>
+        <v>93.84892985787191</v>
       </c>
       <c r="S17" t="n">
-        <v>-16.39999999999964</v>
+        <v>-12.60000000000036</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2002835873803616</v>
+        <v>0.2165925925925926</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B18" t="n">
+        <v>58</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G18" t="n">
+        <v>60</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>180</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-2516.000000000068</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-2765.899999999998</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3232</v>
+      </c>
+      <c r="N18" t="n">
+        <v>249.8999999999296</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-471</v>
+      </c>
+      <c r="P18" t="n">
+        <v>871.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.07732054455443367</v>
+      </c>
+      <c r="R18" t="n">
+        <v>109.3783670310538</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-19</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.2580445544554456</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" t="n">
         <v>10</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G19" t="n">
+        <v>25</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>35</v>
+      </c>
+      <c r="J19" t="n">
+        <v>140</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-3516.099999999999</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-4001.299999999977</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3461</v>
+      </c>
+      <c r="N19" t="n">
+        <v>485.199999999978</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-404.4000000000005</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1135.700000000001</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.1401906963305339</v>
+      </c>
+      <c r="R19" t="n">
+        <v>105.4257883011169</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-17</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.235770008668015</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="n">
+        <v>25</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G20" t="n">
+        <v>80</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I20" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" t="n">
+        <v>160</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-3538.900000000061</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-3198.100000000008</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2746</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-340.8000000000529</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-898.6999999999998</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1157.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-0.1241077931536974</v>
+      </c>
+      <c r="R20" t="n">
+        <v>111.9087537411532</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-17.95000000000073</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.2002913328477786</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>30</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G21" t="n">
+        <v>25</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>90</v>
+      </c>
+      <c r="J21" t="n">
+        <v>120</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-3676.69999999995</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-2697.999999999985</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2669</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-978.6999999999653</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-336.7000000000007</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1479.599999999999</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.3666916448107775</v>
+      </c>
+      <c r="R21" t="n">
+        <v>107.6760154911931</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-15.29999999999927</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.2000749344323717</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B22" t="n">
+        <v>13</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G22" t="n">
+        <v>85</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>100</v>
+      </c>
+      <c r="J22" t="n">
+        <v>80</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-3737.600000000153</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-2701.600000000083</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2231</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-1036.00000000007</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-413</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1552.7</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.464365755266728</v>
+      </c>
+      <c r="R22" t="n">
+        <v>119.6836318896732</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-17.19999999999891</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.1730165844912595</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B23" t="n">
+        <v>45</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I23" t="n">
+        <v>45</v>
+      </c>
+      <c r="J23" t="n">
+        <v>120</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-4024.100000000019</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-3185.500000000012</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3499</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-838.6000000000076</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-443.5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1095.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.2396684767076329</v>
+      </c>
+      <c r="R23" t="n">
+        <v>103.0240516013113</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-15.70000000000073</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.2037725064304087</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>34</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G24" t="n">
+        <v>35</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>40</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-4202.700000000037</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-3171.800000000037</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4317</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-1030.9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-424.2999999999993</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1315.4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-0.2388000926569376</v>
+      </c>
+      <c r="R24" t="n">
+        <v>85.88022773932794</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-12.19999999999891</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.241139680333565</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B25" t="n">
+        <v>57</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G25" t="n">
+        <v>20</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>30</v>
+      </c>
+      <c r="J25" t="n">
+        <v>120</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-4260.200000000155</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-2576.200000000055</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5341</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-1684.0000000001</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-436.8000000000011</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1214</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-0.3152967609062161</v>
+      </c>
+      <c r="R25" t="n">
+        <v>80.91580820379237</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-11.39999999999964</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.2536978093989889</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G26" t="n">
+        <v>95</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>80</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-4356.999999999907</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-3018.599999999981</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3200</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-1338.399999999926</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-416.7999999999993</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1456.499999999999</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-0.4182499999999769</v>
+      </c>
+      <c r="R26" t="n">
+        <v>96.08835627008872</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-12.90000000000146</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.2140625</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B27" t="n">
+        <v>33</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G27" t="n">
+        <v>65</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I27" t="n">
+        <v>85</v>
+      </c>
+      <c r="J27" t="n">
+        <v>200</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-4479.399999999983</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-2950.30000000003</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2701</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-1529.099999999953</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-364.9000000000015</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1263.799999999999</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-0.5661236579044624</v>
+      </c>
+      <c r="R27" t="n">
+        <v>108.9403313992289</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-16.10000000000036</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.2014068863383932</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B28" t="n">
+        <v>18</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G28" t="n">
+        <v>25</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>65</v>
+      </c>
+      <c r="J28" t="n">
+        <v>120</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-4499.399999999952</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-2703.899999999972</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3089</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-1795.49999999998</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-336.7000000000007</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1263.799999999999</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-0.5812560699255358</v>
+      </c>
+      <c r="R28" t="n">
+        <v>101.0269381342823</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.2071867918420201</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B29" t="n">
+        <v>16</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G29" t="n">
+        <v>35</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>30</v>
+      </c>
+      <c r="J29" t="n">
+        <v>200</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-4635.999999999844</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-2918.999999999951</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4219</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-1716.999999999893</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-433.6999999999998</v>
+      </c>
+      <c r="P29" t="n">
+        <v>824</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-0.406968475942141</v>
+      </c>
+      <c r="R29" t="n">
+        <v>93.41164897277503</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-15.69999999999891</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.2557478075373311</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B30" t="n">
+        <v>47</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G30" t="n">
+        <v>90</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I30" t="n">
+        <v>30</v>
+      </c>
+      <c r="J30" t="n">
+        <v>180</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-4793.500000000029</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-3864.600000000018</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5101</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-928.9000000000115</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-453.8000000000002</v>
+      </c>
+      <c r="P30" t="n">
+        <v>972.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-0.1821015487159403</v>
+      </c>
+      <c r="R30" t="n">
+        <v>81.25658040805159</v>
+      </c>
+      <c r="S30" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.246814350127426</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B31" t="n">
+        <v>46</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G31" t="n">
+        <v>40</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>40</v>
+      </c>
+      <c r="J31" t="n">
+        <v>140</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-5058.400000000142</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-3054.100000000063</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3178</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-2004.300000000078</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-360.5000000000009</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1135.700000000001</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.630679672750182</v>
+      </c>
+      <c r="R31" t="n">
+        <v>105.9999667209833</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-17.35000000000036</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.2271869100062933</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G32" t="n">
+        <v>35</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>30</v>
+      </c>
+      <c r="J32" t="n">
+        <v>100</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-5479.000000000153</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-3441.400000000044</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5203</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-2037.600000000109</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-424.2999999999993</v>
+      </c>
+      <c r="P32" t="n">
+        <v>723.5999999999985</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-0.3916202191043837</v>
+      </c>
+      <c r="R32" t="n">
+        <v>81.12968142118925</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-12.10000000000036</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.2521622141072458</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B33" t="n">
+        <v>52</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G33" t="n">
+        <v>25</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>45</v>
+      </c>
+      <c r="J33" t="n">
+        <v>100</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-5484.599999999982</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-4042.499999999984</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3137</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-1442.099999999999</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-443.5</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1166.200000000001</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-0.459706726171501</v>
+      </c>
+      <c r="R33" t="n">
+        <v>106.0352059995078</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-16.30000000000109</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.21262352566146</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>45</v>
+      </c>
+      <c r="J34" t="n">
+        <v>100</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-6275.000000000065</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-3141.000000000031</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3893</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-3134.000000000035</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-443.5</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1202.299999999999</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.805034677626518</v>
+      </c>
+      <c r="R34" t="n">
+        <v>95.31798771884117</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-14.39999999999964</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.2070382738248138</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B35" t="n">
+        <v>32</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G35" t="n">
+        <v>85</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>35</v>
+      </c>
+      <c r="J35" t="n">
+        <v>200</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-6485.099999999989</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-4063.700000000003</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3867</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-2421.399999999987</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-489.1999999999998</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1102.299999999999</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-0.6261701577450186</v>
+      </c>
+      <c r="R35" t="n">
+        <v>97.43319520680788</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-16.10000000000036</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.2332557538143263</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B36" t="n">
+        <v>39</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G36" t="n">
+        <v>30</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>80</v>
+      </c>
+      <c r="J36" t="n">
+        <v>100</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-6500.599999999946</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-3269.499999999979</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2813</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-3231.099999999967</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-336.7000000000007</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1262</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-1.148631354425868</v>
+      </c>
+      <c r="R36" t="n">
+        <v>103.9146517823215</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.2072520440810522</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G37" t="n">
+        <v>65</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" t="n">
+        <v>30</v>
+      </c>
+      <c r="J37" t="n">
+        <v>120</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-7939.400000000085</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-4940.500000000037</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3194</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-2998.900000000048</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-404.4000000000005</v>
+      </c>
+      <c r="P37" t="n">
+        <v>871.5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-0.9389167188478547</v>
+      </c>
+      <c r="R37" t="n">
+        <v>108.6788712431318</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-18</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.2523481527864747</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B38" t="n">
+        <v>66</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G38" t="n">
+        <v>60</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>45</v>
+      </c>
+      <c r="J38" t="n">
+        <v>100</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-8226.799999999961</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-4130.79999999998</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4087</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-4095.999999999981</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-416.7999999999993</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1315.4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-1.002202104232929</v>
+      </c>
+      <c r="R38" t="n">
+        <v>85.81511741726024</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-12.79999999999927</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.228040127232689</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G39" t="n">
+        <v>50</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>55</v>
+      </c>
+      <c r="J39" t="n">
+        <v>160</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-8723.999999999971</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-4361.999999999985</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3229</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-4361.999999999985</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-898.6999999999998</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1291.099999999999</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-1.350882626200058</v>
+      </c>
+      <c r="R39" t="n">
+        <v>101.3111578864344</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-16.10000000000036</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.1972746980489316</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B40" t="n">
+        <v>67</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G40" t="n">
+        <v>80</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I40" t="n">
+        <v>75</v>
+      </c>
+      <c r="J40" t="n">
+        <v>100</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-9105.900000000101</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-4846.400000000046</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2583</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-4259.500000000055</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-354.6000000000004</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1271.5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-1.649051490514927</v>
+      </c>
+      <c r="R40" t="n">
+        <v>111.7170832416777</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-17.60000000000036</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.1835075493612079</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B41" t="n">
+        <v>21</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G41" t="n">
+        <v>80</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>120</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-9114.100000000009</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-6490.300000000012</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2531</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-2623.799999999997</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-354.7000000000007</v>
+      </c>
+      <c r="P41" t="n">
+        <v>867.3999999999996</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-1.036665349664163</v>
+      </c>
+      <c r="R41" t="n">
+        <v>118.6552318476787</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-17.89999999999964</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.364282892137495</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G42" t="n">
+        <v>35</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>80</v>
+      </c>
+      <c r="J42" t="n">
+        <v>100</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-9341.599999999891</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-4674.299999999944</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2821</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-4667.299999999947</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-336.7000000000007</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1262</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-1.654484225451949</v>
+      </c>
+      <c r="R42" t="n">
+        <v>105.262085960673</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-16.39999999999964</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.2002835873803616</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>53</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G43" t="n">
+        <v>55</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>70</v>
+      </c>
+      <c r="J43" t="n">
+        <v>120</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-11561.50000000003</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-6376.800000000029</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2979</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-5184.699999999996</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-364.9000000000015</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1289.299999999999</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-1.740416247062772</v>
+      </c>
+      <c r="R43" t="n">
+        <v>103.8486735929273</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-16.20000000000073</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.18932527693857</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B44" t="n">
+        <v>63</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G44" t="n">
+        <v>70</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>70</v>
+      </c>
+      <c r="J44" t="n">
+        <v>180</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-13887.59999999996</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-7678.299999999981</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2961</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-6209.299999999976</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-898.6999999999998</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1294.199999999999</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-2.097028031070576</v>
+      </c>
+      <c r="R44" t="n">
+        <v>104.6448988293842</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-16.20000000000073</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.1982438365417089</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B45" t="n">
+        <v>41</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G45" t="n">
+        <v>90</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I45" t="n">
+        <v>60</v>
+      </c>
+      <c r="J45" t="n">
+        <v>100</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-17333.09999999985</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-8691.199999999921</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3093</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-8641.899999999929</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-413</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1291.599999999999</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-2.794018752020669</v>
+      </c>
+      <c r="R45" t="n">
+        <v>100.5380908931953</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-16.39999999999964</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.196249595861623</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B46" t="n">
+        <v>51</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G46" t="n">
+        <v>75</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>65</v>
+      </c>
+      <c r="J46" t="n">
+        <v>80</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-18719.99999999991</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-9616.299999999961</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3019</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-9103.699999999944</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-364.9000000000015</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1289.299999999999</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-3.015468698244433</v>
+      </c>
+      <c r="R46" t="n">
+        <v>102.4562917297365</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-16.29999999999927</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.1970851275256708</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B47" t="n">
+        <v>26</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G47" t="n">
+        <v>35</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>80</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-21842.10000000011</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-13343.90000000007</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2671</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-8498.200000000043</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-341.1000000000004</v>
+      </c>
+      <c r="P47" t="n">
+        <v>874.3999999999996</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-3.181654810932251</v>
+      </c>
+      <c r="R47" t="n">
+        <v>111.1270231900061</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-19.70000000000073</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.3519281168101834</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B48" t="n">
+        <v>61</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G48" t="n">
+        <v>100</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>80</v>
+      </c>
+      <c r="J48" t="n">
+        <v>40</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-30455.39999999987</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-15237.09999999994</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2740</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-15218.29999999994</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-413</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1263.799999999999</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-5.554124087591218</v>
+      </c>
+      <c r="R48" t="n">
+        <v>100.6596503715313</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-18</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.1755474452554744</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B49" t="n">
+        <v>43</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G49" t="n">
+        <v>40</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I49" t="n">
         <v>15</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>NSDQ</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>M30</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="J49" t="n">
+        <v>80</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-31347.99999999974</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-16563.99999999986</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4617</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-14783.99999999987</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-384.6999999999998</v>
+      </c>
+      <c r="P49" t="n">
+        <v>763.3999999999996</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-3.202079272254684</v>
+      </c>
+      <c r="R49" t="n">
+        <v>91.77977488639719</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.2802685726662335</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B50" t="n">
+        <v>15</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G50" t="n">
         <v>40</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H50" t="n">
         <v>2.4</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I50" t="n">
         <v>90</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J50" t="n">
         <v>40</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K50" t="n">
         <v>-31845.59999999988</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L50" t="n">
         <v>-15932.19999999994</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M50" t="n">
         <v>2643</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N50" t="n">
         <v>-15913.39999999994</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O50" t="n">
         <v>-364.9000000000015</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P50" t="n">
         <v>1583.599999999999</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q50" t="n">
         <v>-6.020961029133538</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R50" t="n">
         <v>103.0334415198214</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S50" t="n">
         <v>-17.89999999999964</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T50" t="n">
         <v>0.1800983730609156</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B51" t="n">
+        <v>37</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G51" t="n">
+        <v>90</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I51" t="n">
+        <v>20</v>
+      </c>
+      <c r="J51" t="n">
+        <v>60</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-33381.49999999996</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-16813.89999999998</v>
+      </c>
+      <c r="M51" t="n">
+        <v>6069</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-16567.59999999998</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-416.7999999999993</v>
+      </c>
+      <c r="P51" t="n">
+        <v>660.5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-2.729873125720873</v>
+      </c>
+      <c r="R51" t="n">
+        <v>77.28553089815055</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.2540781018289669</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B52" t="n">
+        <v>29</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G52" t="n">
+        <v>25</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I52" t="n">
+        <v>30</v>
+      </c>
+      <c r="J52" t="n">
+        <v>60</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-38285.99999999986</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-19348.29999999991</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4383</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-18937.69999999995</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-350.5</v>
+      </c>
+      <c r="P52" t="n">
+        <v>842.7999999999993</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-4.320716404289289</v>
+      </c>
+      <c r="R52" t="n">
+        <v>91.26091667258865</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.2411590234998859</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B53" t="n">
+        <v>40</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G53" t="n">
+        <v>40</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>35</v>
+      </c>
+      <c r="J53" t="n">
+        <v>40</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-45229.59999999985</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-22632.19999999992</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4713</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-22597.39999999992</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-366.8999999999996</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1241.799999999999</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-4.794695523021414</v>
+      </c>
+      <c r="R53" t="n">
+        <v>80.29056365612951</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-13.29999999999927</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.2287290473159347</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B54" t="n">
+        <v>56</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I54" t="n">
+        <v>70</v>
+      </c>
+      <c r="J54" t="n">
+        <v>20</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-47511.59999999991</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-23755.79999999996</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3579</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-23755.79999999996</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-412.7999999999993</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1108.1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-6.637552388935444</v>
+      </c>
+      <c r="R54" t="n">
+        <v>77.34953565353167</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-16.20000000000073</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.1824531992176586</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B55" t="n">
+        <v>60</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G55" t="n">
+        <v>35</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I55" t="n">
+        <v>65</v>
+      </c>
+      <c r="J55" t="n">
+        <v>20</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-49961.20000000004</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-24998.00000000002</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3449</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-24963.20000000002</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-289.2000000000007</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1213.4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-7.237808060307342</v>
+      </c>
+      <c r="R55" t="n">
+        <v>79.19020693865274</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-20.40000000000146</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.1751232241229342</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G56" t="n">
+        <v>40</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>20</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-123097.4</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-61686.19999999998</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4471</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-61411.19999999998</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-321.1999999999998</v>
+      </c>
+      <c r="P56" t="n">
+        <v>782.7999999999993</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-13.735450682174</v>
+      </c>
+      <c r="R56" t="n">
+        <v>68.7388597282536</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-26</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.2153880563632297</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B57" t="n">
+        <v>44</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G57" t="n">
+        <v>45</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I57" t="n">
+        <v>20</v>
+      </c>
+      <c r="J57" t="n">
+        <v>20</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-124050.2000000001</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-62092.70000000003</v>
+      </c>
+      <c r="M57" t="n">
+        <v>6137</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-61957.50000000003</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-379.2999999999993</v>
+      </c>
+      <c r="P57" t="n">
+        <v>660.5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-10.09573081310087</v>
+      </c>
+      <c r="R57" t="n">
+        <v>64.55013712906187</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-21.20000000000073</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.1991200912497963</v>
       </c>
     </row>
   </sheetData>

--- a/result/TrailATR/summary_NSDQ_M30_2020-2024_0.xlsx
+++ b/result/TrailATR/summary_NSDQ_M30_2020-2024_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,10 +664,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -686,54 +686,54 @@
         <v>2024</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>3125.799999999927</v>
+        <v>4422.299999999886</v>
       </c>
       <c r="L4" t="n">
-        <v>-962.900000000036</v>
+        <v>-409.4000000000015</v>
       </c>
       <c r="M4" t="n">
-        <v>2440</v>
+        <v>2394</v>
       </c>
       <c r="N4" t="n">
-        <v>4088.699999999963</v>
+        <v>4831.699999999888</v>
       </c>
       <c r="O4" t="n">
-        <v>-402.5</v>
+        <v>-471</v>
       </c>
       <c r="P4" t="n">
-        <v>1479.599999999999</v>
+        <v>1232</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67569672131146</v>
+        <v>2.018253968253922</v>
       </c>
       <c r="R4" t="n">
-        <v>117.0823860295264</v>
+        <v>117.3908036876615</v>
       </c>
       <c r="S4" t="n">
-        <v>-15.80000000000109</v>
+        <v>-17.25</v>
       </c>
       <c r="T4" t="n">
-        <v>0.185655737704918</v>
+        <v>0.1917293233082707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -752,54 +752,54 @@
         <v>2024</v>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
-        <v>3.600000000000001</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
         <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>1890.700000000008</v>
+        <v>3240.09999999996</v>
       </c>
       <c r="L5" t="n">
-        <v>-1088.999999999978</v>
+        <v>-2569.299999999992</v>
       </c>
       <c r="M5" t="n">
-        <v>2609</v>
+        <v>3344</v>
       </c>
       <c r="N5" t="n">
-        <v>2979.699999999986</v>
+        <v>5809.399999999952</v>
       </c>
       <c r="O5" t="n">
-        <v>-443.5</v>
+        <v>-471</v>
       </c>
       <c r="P5" t="n">
-        <v>1262.299999999999</v>
+        <v>885.2000000000007</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.142085090072819</v>
+        <v>1.737260765550225</v>
       </c>
       <c r="R5" t="n">
-        <v>113.2558065409383</v>
+        <v>110.0146395180481</v>
       </c>
       <c r="S5" t="n">
-        <v>-16.5</v>
+        <v>-17.69999999999982</v>
       </c>
       <c r="T5" t="n">
-        <v>0.189344576466079</v>
+        <v>0.2787081339712918</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -818,120 +818,120 @@
         <v>2024</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="J6" t="n">
         <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>1452.500000000115</v>
+        <v>3125.799999999927</v>
       </c>
       <c r="L6" t="n">
-        <v>-3902.100000000009</v>
+        <v>-962.900000000036</v>
       </c>
       <c r="M6" t="n">
-        <v>3381</v>
+        <v>2440</v>
       </c>
       <c r="N6" t="n">
-        <v>5354.600000000124</v>
+        <v>4088.699999999963</v>
       </c>
       <c r="O6" t="n">
-        <v>-898.6999999999998</v>
+        <v>-402.5</v>
       </c>
       <c r="P6" t="n">
-        <v>1246.799999999999</v>
+        <v>1479.599999999999</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.583732623484213</v>
+        <v>1.67569672131146</v>
       </c>
       <c r="R6" t="n">
-        <v>95.35166308228047</v>
+        <v>117.0823860295264</v>
       </c>
       <c r="S6" t="n">
-        <v>-11.10000000000036</v>
+        <v>-15.80000000000109</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.185655737704918</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B7" t="n">
+        <v>90</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NSDQ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>M30</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>95</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>80</v>
-      </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>1320.999999999887</v>
+        <v>2886.999999999975</v>
       </c>
       <c r="L7" t="n">
-        <v>-585.7999999999993</v>
+        <v>-421.0000000000109</v>
       </c>
       <c r="M7" t="n">
-        <v>2422</v>
+        <v>2537</v>
       </c>
       <c r="N7" t="n">
-        <v>1906.799999999886</v>
+        <v>3307.999999999986</v>
       </c>
       <c r="O7" t="n">
-        <v>-443.5</v>
+        <v>-402.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1189.700000000001</v>
+        <v>1479.599999999999</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7872832369941728</v>
+        <v>1.303902246748122</v>
       </c>
       <c r="R7" t="n">
-        <v>115.4691864415554</v>
+        <v>112.7431808539956</v>
       </c>
       <c r="S7" t="n">
-        <v>-17.40000000000055</v>
+        <v>-15.5</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1907514450867052</v>
+        <v>0.1769806858494285</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -950,54 +950,54 @@
         <v>2024</v>
       </c>
       <c r="G8" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="J8" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>1264.599999999897</v>
+        <v>2807.399999999996</v>
       </c>
       <c r="L8" t="n">
-        <v>-1777.800000000007</v>
+        <v>-1244.299999999989</v>
       </c>
       <c r="M8" t="n">
-        <v>2702</v>
+        <v>2581</v>
       </c>
       <c r="N8" t="n">
-        <v>3042.399999999904</v>
+        <v>4051.699999999985</v>
       </c>
       <c r="O8" t="n">
-        <v>-489.1999999999998</v>
+        <v>-471</v>
       </c>
       <c r="P8" t="n">
-        <v>1290.799999999999</v>
+        <v>1332.699999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.125980754996263</v>
+        <v>1.569817900038739</v>
       </c>
       <c r="R8" t="n">
-        <v>113.6812941433276</v>
+        <v>113.8671693272742</v>
       </c>
       <c r="S8" t="n">
-        <v>-17.29999999999927</v>
+        <v>-15</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1994818652849741</v>
+        <v>0.1790003874467261</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B9" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1016,54 +1016,54 @@
         <v>2024</v>
       </c>
       <c r="G9" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K9" t="n">
-        <v>1160.599999999949</v>
+        <v>2169.199999999877</v>
       </c>
       <c r="L9" t="n">
-        <v>-3191.399999999997</v>
+        <v>-1400.000000000019</v>
       </c>
       <c r="M9" t="n">
-        <v>2950</v>
+        <v>6191</v>
       </c>
       <c r="N9" t="n">
-        <v>4351.999999999945</v>
+        <v>3569.199999999896</v>
       </c>
       <c r="O9" t="n">
-        <v>-490.5</v>
+        <v>-453.8000000000002</v>
       </c>
       <c r="P9" t="n">
-        <v>1135.700000000001</v>
+        <v>770.8999999999996</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.475254237288117</v>
+        <v>0.5765142949442572</v>
       </c>
       <c r="R9" t="n">
-        <v>112.2890765678514</v>
+        <v>78.34029027149491</v>
       </c>
       <c r="S9" t="n">
-        <v>-17.30000000000109</v>
+        <v>-11.39999999999964</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2257627118644068</v>
+        <v>0.271523178807947</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1082,54 +1082,54 @@
         <v>2024</v>
       </c>
       <c r="G10" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>745.0000000000091</v>
+        <v>1890.700000000008</v>
       </c>
       <c r="L10" t="n">
-        <v>-2217.000000000007</v>
+        <v>-1088.999999999978</v>
       </c>
       <c r="M10" t="n">
-        <v>3367</v>
+        <v>2609</v>
       </c>
       <c r="N10" t="n">
-        <v>2962.000000000016</v>
+        <v>2979.699999999986</v>
       </c>
       <c r="O10" t="n">
-        <v>-416.7999999999993</v>
+        <v>-443.5</v>
       </c>
       <c r="P10" t="n">
-        <v>1276.699999999999</v>
+        <v>1262.299999999999</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8797148797148846</v>
+        <v>1.142085090072819</v>
       </c>
       <c r="R10" t="n">
-        <v>93.91060872343836</v>
+        <v>113.2558065409383</v>
       </c>
       <c r="S10" t="n">
-        <v>-12.20000000000073</v>
+        <v>-16.5</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2200772200772201</v>
+        <v>0.189344576466079</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1148,54 +1148,54 @@
         <v>2024</v>
       </c>
       <c r="G11" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="I11" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>216.9000000000542</v>
+        <v>1452.500000000115</v>
       </c>
       <c r="L11" t="n">
-        <v>-2945.999999999994</v>
+        <v>-3902.100000000009</v>
       </c>
       <c r="M11" t="n">
-        <v>3119</v>
+        <v>3381</v>
       </c>
       <c r="N11" t="n">
-        <v>3162.900000000048</v>
+        <v>5354.600000000124</v>
       </c>
       <c r="O11" t="n">
-        <v>-416.7999999999993</v>
+        <v>-898.6999999999998</v>
       </c>
       <c r="P11" t="n">
-        <v>1456.499999999999</v>
+        <v>1246.799999999999</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.014075024046184</v>
+        <v>1.583732623484213</v>
       </c>
       <c r="R11" t="n">
-        <v>97.95815782050286</v>
+        <v>95.35166308228047</v>
       </c>
       <c r="S11" t="n">
-        <v>-12</v>
+        <v>-11.10000000000036</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2228278294325104</v>
+        <v>0.2380952380952381</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1214,54 +1214,54 @@
         <v>2024</v>
       </c>
       <c r="G12" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="H12" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="J12" t="n">
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>-704.2000000000062</v>
+        <v>1320.999999999887</v>
       </c>
       <c r="L12" t="n">
-        <v>-2021.500000000005</v>
+        <v>-585.7999999999993</v>
       </c>
       <c r="M12" t="n">
-        <v>3477</v>
+        <v>2422</v>
       </c>
       <c r="N12" t="n">
-        <v>1317.299999999999</v>
+        <v>1906.799999999886</v>
       </c>
       <c r="O12" t="n">
-        <v>-416.7999999999993</v>
+        <v>-443.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1276.699999999999</v>
+        <v>1189.700000000001</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3788610871440895</v>
+        <v>0.7872832369941728</v>
       </c>
       <c r="R12" t="n">
-        <v>91.42235820728516</v>
+        <v>115.4691864415554</v>
       </c>
       <c r="S12" t="n">
-        <v>-12.10000000000036</v>
+        <v>-17.40000000000055</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2191544434857636</v>
+        <v>0.1907514450867052</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1280,54 +1280,54 @@
         <v>2024</v>
       </c>
       <c r="G13" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H13" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="K13" t="n">
-        <v>-827.1000000000331</v>
+        <v>1264.599999999897</v>
       </c>
       <c r="L13" t="n">
-        <v>-2252.199999999994</v>
+        <v>-1777.800000000007</v>
       </c>
       <c r="M13" t="n">
-        <v>6069</v>
+        <v>2702</v>
       </c>
       <c r="N13" t="n">
-        <v>1425.099999999961</v>
+        <v>3042.399999999904</v>
       </c>
       <c r="O13" t="n">
-        <v>-453.8000000000002</v>
+        <v>-489.1999999999998</v>
       </c>
       <c r="P13" t="n">
-        <v>753.1000000000004</v>
+        <v>1290.799999999999</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2348162794529513</v>
+        <v>1.125980754996263</v>
       </c>
       <c r="R13" t="n">
-        <v>78.48815785371127</v>
+        <v>113.6812941433276</v>
       </c>
       <c r="S13" t="n">
-        <v>-12</v>
+        <v>-17.29999999999927</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2644587246663371</v>
+        <v>0.1994818652849741</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1346,54 +1346,54 @@
         <v>2024</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>-1057.800000000025</v>
+        <v>1160.599999999949</v>
       </c>
       <c r="L14" t="n">
-        <v>-4027.500000000049</v>
+        <v>-3191.399999999997</v>
       </c>
       <c r="M14" t="n">
-        <v>3519</v>
+        <v>2950</v>
       </c>
       <c r="N14" t="n">
-        <v>2969.700000000024</v>
+        <v>4351.999999999945</v>
       </c>
       <c r="O14" t="n">
-        <v>-898.6999999999998</v>
+        <v>-490.5</v>
       </c>
       <c r="P14" t="n">
-        <v>1246.799999999999</v>
+        <v>1135.700000000001</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8439045183290776</v>
+        <v>1.475254237288117</v>
       </c>
       <c r="R14" t="n">
-        <v>93.1349647634071</v>
+        <v>112.2890765678514</v>
       </c>
       <c r="S14" t="n">
-        <v>-11.5</v>
+        <v>-17.30000000000109</v>
       </c>
       <c r="T14" t="n">
-        <v>0.226768968456948</v>
+        <v>0.2257627118644068</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1412,54 +1412,54 @@
         <v>2024</v>
       </c>
       <c r="G15" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H15" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="J15" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>-1133.400000000038</v>
+        <v>745.0000000000091</v>
       </c>
       <c r="L15" t="n">
-        <v>-1763.400000000015</v>
+        <v>-2217.000000000007</v>
       </c>
       <c r="M15" t="n">
-        <v>5591</v>
+        <v>3367</v>
       </c>
       <c r="N15" t="n">
-        <v>629.9999999999773</v>
+        <v>2962.000000000016</v>
       </c>
       <c r="O15" t="n">
-        <v>-453.8000000000002</v>
+        <v>-416.7999999999993</v>
       </c>
       <c r="P15" t="n">
-        <v>729.6999999999998</v>
+        <v>1276.699999999999</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1126810946163436</v>
+        <v>0.8797148797148846</v>
       </c>
       <c r="R15" t="n">
-        <v>79.526490054858</v>
+        <v>93.91060872343836</v>
       </c>
       <c r="S15" t="n">
-        <v>-11.89999999999964</v>
+        <v>-12.20000000000073</v>
       </c>
       <c r="T15" t="n">
-        <v>0.252727597925237</v>
+        <v>0.2200772200772201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B16" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1478,54 +1478,54 @@
         <v>2024</v>
       </c>
       <c r="G16" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H16" t="n">
-        <v>2.600000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J16" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>-2098.599999999917</v>
+        <v>216.9000000000542</v>
       </c>
       <c r="L16" t="n">
-        <v>-4669.699999999943</v>
+        <v>-2945.999999999994</v>
       </c>
       <c r="M16" t="n">
-        <v>4748</v>
+        <v>3119</v>
       </c>
       <c r="N16" t="n">
-        <v>2571.100000000027</v>
+        <v>3162.900000000048</v>
       </c>
       <c r="O16" t="n">
-        <v>-404.4000000000005</v>
+        <v>-416.7999999999993</v>
       </c>
       <c r="P16" t="n">
-        <v>868.7999999999993</v>
+        <v>1456.499999999999</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5415122156697613</v>
+        <v>1.014075024046184</v>
       </c>
       <c r="R16" t="n">
-        <v>90.48327197880951</v>
+        <v>97.95815782050286</v>
       </c>
       <c r="S16" t="n">
-        <v>-13.60000000000036</v>
+        <v>-12</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3519376579612468</v>
+        <v>0.2228278294325104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B17" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1544,54 +1544,54 @@
         <v>2024</v>
       </c>
       <c r="G17" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="H17" t="n">
         <v>1.6</v>
       </c>
       <c r="I17" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K17" t="n">
-        <v>-2322.49999999998</v>
+        <v>-408.0999999999185</v>
       </c>
       <c r="L17" t="n">
-        <v>-2793.999999999985</v>
+        <v>-2263.899999999989</v>
       </c>
       <c r="M17" t="n">
-        <v>3375</v>
+        <v>3767</v>
       </c>
       <c r="N17" t="n">
-        <v>471.5000000000045</v>
+        <v>1855.80000000007</v>
       </c>
       <c r="O17" t="n">
         <v>-416.7999999999993</v>
       </c>
       <c r="P17" t="n">
-        <v>1263.199999999999</v>
+        <v>1299.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1397037037037051</v>
+        <v>0.4926466684364402</v>
       </c>
       <c r="R17" t="n">
-        <v>93.84892985787191</v>
+        <v>87.99186475403062</v>
       </c>
       <c r="S17" t="n">
-        <v>-12.60000000000036</v>
+        <v>-12.5</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2165925925925926</v>
+        <v>0.2269710645075657</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1610,54 +1610,54 @@
         <v>2024</v>
       </c>
       <c r="G18" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="J18" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>-2516.000000000068</v>
+        <v>-704.2000000000062</v>
       </c>
       <c r="L18" t="n">
-        <v>-2765.899999999998</v>
+        <v>-2021.500000000005</v>
       </c>
       <c r="M18" t="n">
-        <v>3232</v>
+        <v>3477</v>
       </c>
       <c r="N18" t="n">
-        <v>249.8999999999296</v>
+        <v>1317.299999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>-471</v>
+        <v>-416.7999999999993</v>
       </c>
       <c r="P18" t="n">
-        <v>871.5</v>
+        <v>1276.699999999999</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.07732054455443367</v>
+        <v>0.3788610871440895</v>
       </c>
       <c r="R18" t="n">
-        <v>109.3783670310538</v>
+        <v>91.42235820728516</v>
       </c>
       <c r="S18" t="n">
-        <v>-19</v>
+        <v>-12.10000000000036</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2580445544554456</v>
+        <v>0.2191544434857636</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1676,54 +1676,54 @@
         <v>2024</v>
       </c>
       <c r="G19" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="I19" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J19" t="n">
         <v>140</v>
       </c>
       <c r="K19" t="n">
-        <v>-3516.099999999999</v>
+        <v>-827.1000000000331</v>
       </c>
       <c r="L19" t="n">
-        <v>-4001.299999999977</v>
+        <v>-2252.199999999994</v>
       </c>
       <c r="M19" t="n">
-        <v>3461</v>
+        <v>6069</v>
       </c>
       <c r="N19" t="n">
-        <v>485.199999999978</v>
+        <v>1425.099999999961</v>
       </c>
       <c r="O19" t="n">
-        <v>-404.4000000000005</v>
+        <v>-453.8000000000002</v>
       </c>
       <c r="P19" t="n">
-        <v>1135.700000000001</v>
+        <v>753.1000000000004</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1401906963305339</v>
+        <v>0.2348162794529513</v>
       </c>
       <c r="R19" t="n">
-        <v>105.4257883011169</v>
+        <v>78.48815785371127</v>
       </c>
       <c r="S19" t="n">
-        <v>-17</v>
+        <v>-12</v>
       </c>
       <c r="T19" t="n">
-        <v>0.235770008668015</v>
+        <v>0.2644587246663371</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1742,54 +1742,54 @@
         <v>2024</v>
       </c>
       <c r="G20" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>3.600000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="I20" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="J20" t="n">
         <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>-3538.900000000061</v>
+        <v>-1057.800000000025</v>
       </c>
       <c r="L20" t="n">
-        <v>-3198.100000000008</v>
+        <v>-4027.500000000049</v>
       </c>
       <c r="M20" t="n">
-        <v>2746</v>
+        <v>3519</v>
       </c>
       <c r="N20" t="n">
-        <v>-340.8000000000529</v>
+        <v>2969.700000000024</v>
       </c>
       <c r="O20" t="n">
         <v>-898.6999999999998</v>
       </c>
       <c r="P20" t="n">
-        <v>1157.5</v>
+        <v>1246.799999999999</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.1241077931536974</v>
+        <v>0.8439045183290776</v>
       </c>
       <c r="R20" t="n">
-        <v>111.9087537411532</v>
+        <v>93.1349647634071</v>
       </c>
       <c r="S20" t="n">
-        <v>-17.95000000000073</v>
+        <v>-11.5</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2002913328477786</v>
+        <v>0.226768968456948</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B21" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1808,54 +1808,54 @@
         <v>2024</v>
       </c>
       <c r="G21" t="n">
+        <v>45</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I21" t="n">
         <v>25</v>
       </c>
-      <c r="H21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>90</v>
-      </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K21" t="n">
-        <v>-3676.69999999995</v>
+        <v>-1133.400000000038</v>
       </c>
       <c r="L21" t="n">
-        <v>-2697.999999999985</v>
+        <v>-1763.400000000015</v>
       </c>
       <c r="M21" t="n">
-        <v>2669</v>
+        <v>5591</v>
       </c>
       <c r="N21" t="n">
-        <v>-978.6999999999653</v>
+        <v>629.9999999999773</v>
       </c>
       <c r="O21" t="n">
-        <v>-336.7000000000007</v>
+        <v>-453.8000000000002</v>
       </c>
       <c r="P21" t="n">
-        <v>1479.599999999999</v>
+        <v>729.6999999999998</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.3666916448107775</v>
+        <v>0.1126810946163436</v>
       </c>
       <c r="R21" t="n">
-        <v>107.6760154911931</v>
+        <v>79.526490054858</v>
       </c>
       <c r="S21" t="n">
-        <v>-15.29999999999927</v>
+        <v>-11.89999999999964</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2000749344323717</v>
+        <v>0.252727597925237</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1874,54 +1874,54 @@
         <v>2024</v>
       </c>
       <c r="G22" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K22" t="n">
-        <v>-3737.600000000153</v>
+        <v>-2098.599999999917</v>
       </c>
       <c r="L22" t="n">
-        <v>-2701.600000000083</v>
+        <v>-4669.699999999943</v>
       </c>
       <c r="M22" t="n">
-        <v>2231</v>
+        <v>4748</v>
       </c>
       <c r="N22" t="n">
-        <v>-1036.00000000007</v>
+        <v>2571.100000000027</v>
       </c>
       <c r="O22" t="n">
-        <v>-413</v>
+        <v>-404.4000000000005</v>
       </c>
       <c r="P22" t="n">
-        <v>1552.7</v>
+        <v>868.7999999999993</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.464365755266728</v>
+        <v>0.5415122156697613</v>
       </c>
       <c r="R22" t="n">
-        <v>119.6836318896732</v>
+        <v>90.48327197880951</v>
       </c>
       <c r="S22" t="n">
-        <v>-17.19999999999891</v>
+        <v>-13.60000000000036</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1730165844912595</v>
+        <v>0.3519376579612468</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B23" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1940,54 +1940,54 @@
         <v>2024</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="H23" t="n">
-        <v>3.600000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="I23" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="J23" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>-4024.100000000019</v>
+        <v>-2322.49999999998</v>
       </c>
       <c r="L23" t="n">
-        <v>-3185.500000000012</v>
+        <v>-2793.999999999985</v>
       </c>
       <c r="M23" t="n">
-        <v>3499</v>
+        <v>3375</v>
       </c>
       <c r="N23" t="n">
-        <v>-838.6000000000076</v>
+        <v>471.5000000000045</v>
       </c>
       <c r="O23" t="n">
-        <v>-443.5</v>
+        <v>-416.7999999999993</v>
       </c>
       <c r="P23" t="n">
-        <v>1095.5</v>
+        <v>1263.199999999999</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.2396684767076329</v>
+        <v>0.1397037037037051</v>
       </c>
       <c r="R23" t="n">
-        <v>103.0240516013113</v>
+        <v>93.84892985787191</v>
       </c>
       <c r="S23" t="n">
-        <v>-15.70000000000073</v>
+        <v>-12.60000000000036</v>
       </c>
       <c r="T23" t="n">
-        <v>0.2037725064304087</v>
+        <v>0.2165925925925926</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2006,54 +2006,54 @@
         <v>2024</v>
       </c>
       <c r="G24" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H24" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K24" t="n">
-        <v>-4202.700000000037</v>
+        <v>-2516.000000000068</v>
       </c>
       <c r="L24" t="n">
-        <v>-3171.800000000037</v>
+        <v>-2765.899999999998</v>
       </c>
       <c r="M24" t="n">
-        <v>4317</v>
+        <v>3232</v>
       </c>
       <c r="N24" t="n">
-        <v>-1030.9</v>
+        <v>249.8999999999296</v>
       </c>
       <c r="O24" t="n">
-        <v>-424.2999999999993</v>
+        <v>-471</v>
       </c>
       <c r="P24" t="n">
-        <v>1315.4</v>
+        <v>871.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.2388000926569376</v>
+        <v>0.07732054455443367</v>
       </c>
       <c r="R24" t="n">
-        <v>85.88022773932794</v>
+        <v>109.3783670310538</v>
       </c>
       <c r="S24" t="n">
-        <v>-12.19999999999891</v>
+        <v>-19</v>
       </c>
       <c r="T24" t="n">
-        <v>0.241139680333565</v>
+        <v>0.2580445544554456</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B25" t="n">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>2024</v>
       </c>
       <c r="G25" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2081,45 +2081,45 @@
         <v>30</v>
       </c>
       <c r="J25" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K25" t="n">
-        <v>-4260.200000000155</v>
+        <v>-3442.500000000124</v>
       </c>
       <c r="L25" t="n">
-        <v>-2576.200000000055</v>
+        <v>-4303.700000000024</v>
       </c>
       <c r="M25" t="n">
-        <v>5341</v>
+        <v>5113</v>
       </c>
       <c r="N25" t="n">
-        <v>-1684.0000000001</v>
+        <v>861.1999999999007</v>
       </c>
       <c r="O25" t="n">
-        <v>-436.8000000000011</v>
+        <v>-453.8000000000002</v>
       </c>
       <c r="P25" t="n">
-        <v>1214</v>
+        <v>981.1000000000004</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.3152967609062161</v>
+        <v>0.1684334050459418</v>
       </c>
       <c r="R25" t="n">
-        <v>80.91580820379237</v>
+        <v>80.97813172910278</v>
       </c>
       <c r="S25" t="n">
-        <v>-11.39999999999964</v>
+        <v>-12.20000000000073</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2536978093989889</v>
+        <v>0.2499511050264033</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -2138,54 +2138,54 @@
         <v>2024</v>
       </c>
       <c r="G26" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="I26" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K26" t="n">
-        <v>-4356.999999999907</v>
+        <v>-3516.099999999999</v>
       </c>
       <c r="L26" t="n">
-        <v>-3018.599999999981</v>
+        <v>-4001.299999999977</v>
       </c>
       <c r="M26" t="n">
-        <v>3200</v>
+        <v>3461</v>
       </c>
       <c r="N26" t="n">
-        <v>-1338.399999999926</v>
+        <v>485.199999999978</v>
       </c>
       <c r="O26" t="n">
-        <v>-416.7999999999993</v>
+        <v>-404.4000000000005</v>
       </c>
       <c r="P26" t="n">
-        <v>1456.499999999999</v>
+        <v>1135.700000000001</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.4182499999999769</v>
+        <v>0.1401906963305339</v>
       </c>
       <c r="R26" t="n">
-        <v>96.08835627008872</v>
+        <v>105.4257883011169</v>
       </c>
       <c r="S26" t="n">
-        <v>-12.90000000000146</v>
+        <v>-17</v>
       </c>
       <c r="T26" t="n">
-        <v>0.2140625</v>
+        <v>0.235770008668015</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B27" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -2204,54 +2204,54 @@
         <v>2024</v>
       </c>
       <c r="G27" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H27" t="n">
-        <v>2.600000000000001</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="J27" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K27" t="n">
-        <v>-4479.399999999983</v>
+        <v>-3538.900000000061</v>
       </c>
       <c r="L27" t="n">
-        <v>-2950.30000000003</v>
+        <v>-3198.100000000008</v>
       </c>
       <c r="M27" t="n">
-        <v>2701</v>
+        <v>2746</v>
       </c>
       <c r="N27" t="n">
-        <v>-1529.099999999953</v>
+        <v>-340.8000000000529</v>
       </c>
       <c r="O27" t="n">
-        <v>-364.9000000000015</v>
+        <v>-898.6999999999998</v>
       </c>
       <c r="P27" t="n">
-        <v>1263.799999999999</v>
+        <v>1157.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.5661236579044624</v>
+        <v>-0.1241077931536974</v>
       </c>
       <c r="R27" t="n">
-        <v>108.9403313992289</v>
+        <v>111.9087537411532</v>
       </c>
       <c r="S27" t="n">
-        <v>-16.10000000000036</v>
+        <v>-17.95000000000073</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2014068863383932</v>
+        <v>0.2002913328477786</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B28" t="n">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2270,54 +2270,54 @@
         <v>2024</v>
       </c>
       <c r="G28" t="n">
+        <v>60</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
         <v>25</v>
       </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>65</v>
-      </c>
       <c r="J28" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K28" t="n">
-        <v>-4499.399999999952</v>
+        <v>-3592.000000000056</v>
       </c>
       <c r="L28" t="n">
-        <v>-2703.899999999972</v>
+        <v>-2592.200000000014</v>
       </c>
       <c r="M28" t="n">
-        <v>3089</v>
+        <v>5589</v>
       </c>
       <c r="N28" t="n">
-        <v>-1795.49999999998</v>
+        <v>-999.800000000042</v>
       </c>
       <c r="O28" t="n">
-        <v>-336.7000000000007</v>
+        <v>-453.8000000000002</v>
       </c>
       <c r="P28" t="n">
-        <v>1263.799999999999</v>
+        <v>729.6999999999998</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.5812560699255358</v>
+        <v>-0.178887099660054</v>
       </c>
       <c r="R28" t="n">
-        <v>101.0269381342823</v>
+        <v>79.41371211558302</v>
       </c>
       <c r="S28" t="n">
-        <v>-15.5</v>
+        <v>-12.39999999999964</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2071867918420201</v>
+        <v>0.2487028090892825</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B29" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2336,54 +2336,54 @@
         <v>2024</v>
       </c>
       <c r="G29" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H29" t="n">
         <v>2.2</v>
       </c>
       <c r="I29" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="J29" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K29" t="n">
-        <v>-4635.999999999844</v>
+        <v>-3676.69999999995</v>
       </c>
       <c r="L29" t="n">
-        <v>-2918.999999999951</v>
+        <v>-2697.999999999985</v>
       </c>
       <c r="M29" t="n">
-        <v>4219</v>
+        <v>2669</v>
       </c>
       <c r="N29" t="n">
-        <v>-1716.999999999893</v>
+        <v>-978.6999999999653</v>
       </c>
       <c r="O29" t="n">
-        <v>-433.6999999999998</v>
+        <v>-336.7000000000007</v>
       </c>
       <c r="P29" t="n">
-        <v>824</v>
+        <v>1479.599999999999</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.406968475942141</v>
+        <v>-0.3666916448107775</v>
       </c>
       <c r="R29" t="n">
-        <v>93.41164897277503</v>
+        <v>107.6760154911931</v>
       </c>
       <c r="S29" t="n">
-        <v>-15.69999999999891</v>
+        <v>-15.29999999999927</v>
       </c>
       <c r="T29" t="n">
-        <v>0.2557478075373311</v>
+        <v>0.2000749344323717</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2402,54 +2402,54 @@
         <v>2024</v>
       </c>
       <c r="G30" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H30" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J30" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K30" t="n">
-        <v>-4793.500000000029</v>
+        <v>-3737.600000000153</v>
       </c>
       <c r="L30" t="n">
-        <v>-3864.600000000018</v>
+        <v>-2701.600000000083</v>
       </c>
       <c r="M30" t="n">
-        <v>5101</v>
+        <v>2231</v>
       </c>
       <c r="N30" t="n">
-        <v>-928.9000000000115</v>
+        <v>-1036.00000000007</v>
       </c>
       <c r="O30" t="n">
-        <v>-453.8000000000002</v>
+        <v>-413</v>
       </c>
       <c r="P30" t="n">
-        <v>972.5</v>
+        <v>1552.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.1821015487159403</v>
+        <v>-0.464365755266728</v>
       </c>
       <c r="R30" t="n">
-        <v>81.25658040805159</v>
+        <v>119.6836318896732</v>
       </c>
       <c r="S30" t="n">
-        <v>-12.5</v>
+        <v>-17.19999999999891</v>
       </c>
       <c r="T30" t="n">
-        <v>0.246814350127426</v>
+        <v>0.1730165844912595</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B31" t="n">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2468,54 +2468,54 @@
         <v>2024</v>
       </c>
       <c r="G31" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="I31" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J31" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K31" t="n">
-        <v>-5058.400000000142</v>
+        <v>-3954.499999999912</v>
       </c>
       <c r="L31" t="n">
-        <v>-3054.100000000063</v>
+        <v>-3818.199999999986</v>
       </c>
       <c r="M31" t="n">
-        <v>3178</v>
+        <v>4634</v>
       </c>
       <c r="N31" t="n">
-        <v>-2004.300000000078</v>
+        <v>-136.2999999999256</v>
       </c>
       <c r="O31" t="n">
-        <v>-360.5000000000009</v>
+        <v>-433.6999999999998</v>
       </c>
       <c r="P31" t="n">
-        <v>1135.700000000001</v>
+        <v>815.7000000000007</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.630679672750182</v>
+        <v>-0.0294130340957975</v>
       </c>
       <c r="R31" t="n">
-        <v>105.9999667209833</v>
+        <v>93.58931182613102</v>
       </c>
       <c r="S31" t="n">
-        <v>-17.35000000000036</v>
+        <v>-15.20000000000073</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2271869100062933</v>
+        <v>0.3092360811394044</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2534,54 +2534,54 @@
         <v>2024</v>
       </c>
       <c r="G32" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="H32" t="n">
-        <v>1.2</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K32" t="n">
-        <v>-5479.000000000153</v>
+        <v>-4024.100000000019</v>
       </c>
       <c r="L32" t="n">
-        <v>-3441.400000000044</v>
+        <v>-3185.500000000012</v>
       </c>
       <c r="M32" t="n">
-        <v>5203</v>
+        <v>3499</v>
       </c>
       <c r="N32" t="n">
-        <v>-2037.600000000109</v>
+        <v>-838.6000000000076</v>
       </c>
       <c r="O32" t="n">
-        <v>-424.2999999999993</v>
+        <v>-443.5</v>
       </c>
       <c r="P32" t="n">
-        <v>723.5999999999985</v>
+        <v>1095.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.3916202191043837</v>
+        <v>-0.2396684767076329</v>
       </c>
       <c r="R32" t="n">
-        <v>81.12968142118925</v>
+        <v>103.0240516013113</v>
       </c>
       <c r="S32" t="n">
-        <v>-12.10000000000036</v>
+        <v>-15.70000000000073</v>
       </c>
       <c r="T32" t="n">
-        <v>0.2521622141072458</v>
+        <v>0.2037725064304087</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B33" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2600,54 +2600,54 @@
         <v>2024</v>
       </c>
       <c r="G33" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="I33" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J33" t="n">
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>-5484.599999999982</v>
+        <v>-4202.700000000037</v>
       </c>
       <c r="L33" t="n">
-        <v>-4042.499999999984</v>
+        <v>-3171.800000000037</v>
       </c>
       <c r="M33" t="n">
-        <v>3137</v>
+        <v>4317</v>
       </c>
       <c r="N33" t="n">
-        <v>-1442.099999999999</v>
+        <v>-1030.9</v>
       </c>
       <c r="O33" t="n">
-        <v>-443.5</v>
+        <v>-424.2999999999993</v>
       </c>
       <c r="P33" t="n">
-        <v>1166.200000000001</v>
+        <v>1315.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.459706726171501</v>
+        <v>-0.2388000926569376</v>
       </c>
       <c r="R33" t="n">
-        <v>106.0352059995078</v>
+        <v>85.88022773932794</v>
       </c>
       <c r="S33" t="n">
-        <v>-16.30000000000109</v>
+        <v>-12.19999999999891</v>
       </c>
       <c r="T33" t="n">
-        <v>0.21262352566146</v>
+        <v>0.241139680333565</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B34" t="n">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2666,54 +2666,54 @@
         <v>2024</v>
       </c>
       <c r="G34" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K34" t="n">
-        <v>-6275.000000000065</v>
+        <v>-4260.200000000155</v>
       </c>
       <c r="L34" t="n">
-        <v>-3141.000000000031</v>
+        <v>-2576.200000000055</v>
       </c>
       <c r="M34" t="n">
-        <v>3893</v>
+        <v>5341</v>
       </c>
       <c r="N34" t="n">
-        <v>-3134.000000000035</v>
+        <v>-1684.0000000001</v>
       </c>
       <c r="O34" t="n">
-        <v>-443.5</v>
+        <v>-436.8000000000011</v>
       </c>
       <c r="P34" t="n">
-        <v>1202.299999999999</v>
+        <v>1214</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.805034677626518</v>
+        <v>-0.3152967609062161</v>
       </c>
       <c r="R34" t="n">
-        <v>95.31798771884117</v>
+        <v>80.91580820379237</v>
       </c>
       <c r="S34" t="n">
-        <v>-14.39999999999964</v>
+        <v>-11.39999999999964</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2070382738248138</v>
+        <v>0.2536978093989889</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2732,54 +2732,54 @@
         <v>2024</v>
       </c>
       <c r="G35" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H35" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="I35" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="J35" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>-6485.099999999989</v>
+        <v>-4356.999999999907</v>
       </c>
       <c r="L35" t="n">
-        <v>-4063.700000000003</v>
+        <v>-3018.599999999981</v>
       </c>
       <c r="M35" t="n">
-        <v>3867</v>
+        <v>3200</v>
       </c>
       <c r="N35" t="n">
-        <v>-2421.399999999987</v>
+        <v>-1338.399999999926</v>
       </c>
       <c r="O35" t="n">
-        <v>-489.1999999999998</v>
+        <v>-416.7999999999993</v>
       </c>
       <c r="P35" t="n">
-        <v>1102.299999999999</v>
+        <v>1456.499999999999</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.6261701577450186</v>
+        <v>-0.4182499999999769</v>
       </c>
       <c r="R35" t="n">
-        <v>97.43319520680788</v>
+        <v>96.08835627008872</v>
       </c>
       <c r="S35" t="n">
-        <v>-16.10000000000036</v>
+        <v>-12.90000000000146</v>
       </c>
       <c r="T35" t="n">
-        <v>0.2332557538143263</v>
+        <v>0.2140625</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B36" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2798,54 +2798,54 @@
         <v>2024</v>
       </c>
       <c r="G36" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H36" t="n">
-        <v>2.2</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K36" t="n">
-        <v>-6500.599999999946</v>
+        <v>-4479.399999999983</v>
       </c>
       <c r="L36" t="n">
-        <v>-3269.499999999979</v>
+        <v>-2950.30000000003</v>
       </c>
       <c r="M36" t="n">
-        <v>2813</v>
+        <v>2701</v>
       </c>
       <c r="N36" t="n">
-        <v>-3231.099999999967</v>
+        <v>-1529.099999999953</v>
       </c>
       <c r="O36" t="n">
-        <v>-336.7000000000007</v>
+        <v>-364.9000000000015</v>
       </c>
       <c r="P36" t="n">
-        <v>1262</v>
+        <v>1263.799999999999</v>
       </c>
       <c r="Q36" t="n">
-        <v>-1.148631354425868</v>
+        <v>-0.5661236579044624</v>
       </c>
       <c r="R36" t="n">
-        <v>103.9146517823215</v>
+        <v>108.9403313992289</v>
       </c>
       <c r="S36" t="n">
-        <v>-16.5</v>
+        <v>-16.10000000000036</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2072520440810522</v>
+        <v>0.2014068863383932</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B37" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2864,54 +2864,54 @@
         <v>2024</v>
       </c>
       <c r="G37" t="n">
+        <v>25</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
         <v>65</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3</v>
-      </c>
-      <c r="I37" t="n">
-        <v>30</v>
       </c>
       <c r="J37" t="n">
         <v>120</v>
       </c>
       <c r="K37" t="n">
-        <v>-7939.400000000085</v>
+        <v>-4499.399999999952</v>
       </c>
       <c r="L37" t="n">
-        <v>-4940.500000000037</v>
+        <v>-2703.899999999972</v>
       </c>
       <c r="M37" t="n">
-        <v>3194</v>
+        <v>3089</v>
       </c>
       <c r="N37" t="n">
-        <v>-2998.900000000048</v>
+        <v>-1795.49999999998</v>
       </c>
       <c r="O37" t="n">
-        <v>-404.4000000000005</v>
+        <v>-336.7000000000007</v>
       </c>
       <c r="P37" t="n">
-        <v>871.5</v>
+        <v>1263.799999999999</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.9389167188478547</v>
+        <v>-0.5812560699255358</v>
       </c>
       <c r="R37" t="n">
-        <v>108.6788712431318</v>
+        <v>101.0269381342823</v>
       </c>
       <c r="S37" t="n">
-        <v>-18</v>
+        <v>-15.5</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2523481527864747</v>
+        <v>0.2071867918420201</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B38" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2930,54 +2930,54 @@
         <v>2024</v>
       </c>
       <c r="G38" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="I38" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K38" t="n">
-        <v>-8226.799999999961</v>
+        <v>-4542.499999999996</v>
       </c>
       <c r="L38" t="n">
-        <v>-4130.79999999998</v>
+        <v>-3938.10000000001</v>
       </c>
       <c r="M38" t="n">
-        <v>4087</v>
+        <v>3245</v>
       </c>
       <c r="N38" t="n">
-        <v>-4095.999999999981</v>
+        <v>-604.399999999986</v>
       </c>
       <c r="O38" t="n">
-        <v>-416.7999999999993</v>
+        <v>-898.6999999999998</v>
       </c>
       <c r="P38" t="n">
-        <v>1315.4</v>
+        <v>1238</v>
       </c>
       <c r="Q38" t="n">
-        <v>-1.002202104232929</v>
+        <v>-0.1862557781201806</v>
       </c>
       <c r="R38" t="n">
-        <v>85.81511741726024</v>
+        <v>100.297825386187</v>
       </c>
       <c r="S38" t="n">
-        <v>-12.79999999999927</v>
+        <v>-14.5</v>
       </c>
       <c r="T38" t="n">
-        <v>0.228040127232689</v>
+        <v>0.1966101694915254</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2996,54 +2996,54 @@
         <v>2024</v>
       </c>
       <c r="G39" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="I39" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="J39" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K39" t="n">
-        <v>-8723.999999999971</v>
+        <v>-4635.999999999844</v>
       </c>
       <c r="L39" t="n">
-        <v>-4361.999999999985</v>
+        <v>-2918.999999999951</v>
       </c>
       <c r="M39" t="n">
-        <v>3229</v>
+        <v>4219</v>
       </c>
       <c r="N39" t="n">
-        <v>-4361.999999999985</v>
+        <v>-1716.999999999893</v>
       </c>
       <c r="O39" t="n">
-        <v>-898.6999999999998</v>
+        <v>-433.6999999999998</v>
       </c>
       <c r="P39" t="n">
-        <v>1291.099999999999</v>
+        <v>824</v>
       </c>
       <c r="Q39" t="n">
-        <v>-1.350882626200058</v>
+        <v>-0.406968475942141</v>
       </c>
       <c r="R39" t="n">
-        <v>101.3111578864344</v>
+        <v>93.41164897277503</v>
       </c>
       <c r="S39" t="n">
-        <v>-16.10000000000036</v>
+        <v>-15.69999999999891</v>
       </c>
       <c r="T39" t="n">
-        <v>0.1972746980489316</v>
+        <v>0.2557478075373311</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B40" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -3062,54 +3062,54 @@
         <v>2024</v>
       </c>
       <c r="G40" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H40" t="n">
-        <v>3.600000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="I40" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="J40" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K40" t="n">
-        <v>-9105.900000000101</v>
+        <v>-4793.500000000029</v>
       </c>
       <c r="L40" t="n">
-        <v>-4846.400000000046</v>
+        <v>-3864.600000000018</v>
       </c>
       <c r="M40" t="n">
-        <v>2583</v>
+        <v>5101</v>
       </c>
       <c r="N40" t="n">
-        <v>-4259.500000000055</v>
+        <v>-928.9000000000115</v>
       </c>
       <c r="O40" t="n">
-        <v>-354.6000000000004</v>
+        <v>-453.8000000000002</v>
       </c>
       <c r="P40" t="n">
-        <v>1271.5</v>
+        <v>972.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>-1.649051490514927</v>
+        <v>-0.1821015487159403</v>
       </c>
       <c r="R40" t="n">
-        <v>111.7170832416777</v>
+        <v>81.25658040805159</v>
       </c>
       <c r="S40" t="n">
-        <v>-17.60000000000036</v>
+        <v>-12.5</v>
       </c>
       <c r="T40" t="n">
-        <v>0.1835075493612079</v>
+        <v>0.246814350127426</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B41" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -3128,54 +3128,54 @@
         <v>2024</v>
       </c>
       <c r="G41" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H41" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="J41" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K41" t="n">
-        <v>-9114.100000000009</v>
+        <v>-5058.400000000142</v>
       </c>
       <c r="L41" t="n">
-        <v>-6490.300000000012</v>
+        <v>-3054.100000000063</v>
       </c>
       <c r="M41" t="n">
-        <v>2531</v>
+        <v>3178</v>
       </c>
       <c r="N41" t="n">
-        <v>-2623.799999999997</v>
+        <v>-2004.300000000078</v>
       </c>
       <c r="O41" t="n">
-        <v>-354.7000000000007</v>
+        <v>-360.5000000000009</v>
       </c>
       <c r="P41" t="n">
-        <v>867.3999999999996</v>
+        <v>1135.700000000001</v>
       </c>
       <c r="Q41" t="n">
-        <v>-1.036665349664163</v>
+        <v>-0.630679672750182</v>
       </c>
       <c r="R41" t="n">
-        <v>118.6552318476787</v>
+        <v>105.9999667209833</v>
       </c>
       <c r="S41" t="n">
-        <v>-17.89999999999964</v>
+        <v>-17.35000000000036</v>
       </c>
       <c r="T41" t="n">
-        <v>0.364282892137495</v>
+        <v>0.2271869100062933</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -3197,51 +3197,51 @@
         <v>35</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="I42" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J42" t="n">
         <v>100</v>
       </c>
       <c r="K42" t="n">
-        <v>-9341.599999999891</v>
+        <v>-5479.000000000153</v>
       </c>
       <c r="L42" t="n">
-        <v>-4674.299999999944</v>
+        <v>-3441.400000000044</v>
       </c>
       <c r="M42" t="n">
-        <v>2821</v>
+        <v>5203</v>
       </c>
       <c r="N42" t="n">
-        <v>-4667.299999999947</v>
+        <v>-2037.600000000109</v>
       </c>
       <c r="O42" t="n">
-        <v>-336.7000000000007</v>
+        <v>-424.2999999999993</v>
       </c>
       <c r="P42" t="n">
-        <v>1262</v>
+        <v>723.5999999999985</v>
       </c>
       <c r="Q42" t="n">
-        <v>-1.654484225451949</v>
+        <v>-0.3916202191043837</v>
       </c>
       <c r="R42" t="n">
-        <v>105.262085960673</v>
+        <v>81.12968142118925</v>
       </c>
       <c r="S42" t="n">
-        <v>-16.39999999999964</v>
+        <v>-12.10000000000036</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2002835873803616</v>
+        <v>0.2521622141072458</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -3260,54 +3260,54 @@
         <v>2024</v>
       </c>
       <c r="G43" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H43" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="J43" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K43" t="n">
-        <v>-11561.50000000003</v>
+        <v>-5484.599999999982</v>
       </c>
       <c r="L43" t="n">
-        <v>-6376.800000000029</v>
+        <v>-4042.499999999984</v>
       </c>
       <c r="M43" t="n">
-        <v>2979</v>
+        <v>3137</v>
       </c>
       <c r="N43" t="n">
-        <v>-5184.699999999996</v>
+        <v>-1442.099999999999</v>
       </c>
       <c r="O43" t="n">
-        <v>-364.9000000000015</v>
+        <v>-443.5</v>
       </c>
       <c r="P43" t="n">
-        <v>1289.299999999999</v>
+        <v>1166.200000000001</v>
       </c>
       <c r="Q43" t="n">
-        <v>-1.740416247062772</v>
+        <v>-0.459706726171501</v>
       </c>
       <c r="R43" t="n">
-        <v>103.8486735929273</v>
+        <v>106.0352059995078</v>
       </c>
       <c r="S43" t="n">
-        <v>-16.20000000000073</v>
+        <v>-16.30000000000109</v>
       </c>
       <c r="T43" t="n">
-        <v>0.18932527693857</v>
+        <v>0.21262352566146</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B44" t="n">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -3326,54 +3326,54 @@
         <v>2024</v>
       </c>
       <c r="G44" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J44" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>-13887.59999999996</v>
+        <v>-6152.500000000116</v>
       </c>
       <c r="L44" t="n">
-        <v>-7678.299999999981</v>
+        <v>-3557.200000000039</v>
       </c>
       <c r="M44" t="n">
-        <v>2961</v>
+        <v>2692</v>
       </c>
       <c r="N44" t="n">
-        <v>-6209.299999999976</v>
+        <v>-2595.300000000077</v>
       </c>
       <c r="O44" t="n">
-        <v>-898.6999999999998</v>
+        <v>-443.5</v>
       </c>
       <c r="P44" t="n">
-        <v>1294.199999999999</v>
+        <v>1280.700000000001</v>
       </c>
       <c r="Q44" t="n">
-        <v>-2.097028031070576</v>
+        <v>-0.9640787518573839</v>
       </c>
       <c r="R44" t="n">
-        <v>104.6448988293842</v>
+        <v>111.8014468277772</v>
       </c>
       <c r="S44" t="n">
-        <v>-16.20000000000073</v>
+        <v>-18.05000000000018</v>
       </c>
       <c r="T44" t="n">
-        <v>0.1982438365417089</v>
+        <v>0.1913075780089153</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B45" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -3392,54 +3392,54 @@
         <v>2024</v>
       </c>
       <c r="G45" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="H45" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J45" t="n">
         <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>-17333.09999999985</v>
+        <v>-6275.000000000065</v>
       </c>
       <c r="L45" t="n">
-        <v>-8691.199999999921</v>
+        <v>-3141.000000000031</v>
       </c>
       <c r="M45" t="n">
-        <v>3093</v>
+        <v>3893</v>
       </c>
       <c r="N45" t="n">
-        <v>-8641.899999999929</v>
+        <v>-3134.000000000035</v>
       </c>
       <c r="O45" t="n">
-        <v>-413</v>
+        <v>-443.5</v>
       </c>
       <c r="P45" t="n">
-        <v>1291.599999999999</v>
+        <v>1202.299999999999</v>
       </c>
       <c r="Q45" t="n">
-        <v>-2.794018752020669</v>
+        <v>-0.805034677626518</v>
       </c>
       <c r="R45" t="n">
-        <v>100.5380908931953</v>
+        <v>95.31798771884117</v>
       </c>
       <c r="S45" t="n">
-        <v>-16.39999999999964</v>
+        <v>-14.39999999999964</v>
       </c>
       <c r="T45" t="n">
-        <v>0.196249595861623</v>
+        <v>0.2070382738248138</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B46" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -3458,54 +3458,54 @@
         <v>2024</v>
       </c>
       <c r="G46" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H46" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="I46" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="J46" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K46" t="n">
-        <v>-18719.99999999991</v>
+        <v>-6485.099999999989</v>
       </c>
       <c r="L46" t="n">
-        <v>-9616.299999999961</v>
+        <v>-4063.700000000003</v>
       </c>
       <c r="M46" t="n">
-        <v>3019</v>
+        <v>3867</v>
       </c>
       <c r="N46" t="n">
-        <v>-9103.699999999944</v>
+        <v>-2421.399999999987</v>
       </c>
       <c r="O46" t="n">
-        <v>-364.9000000000015</v>
+        <v>-489.1999999999998</v>
       </c>
       <c r="P46" t="n">
-        <v>1289.299999999999</v>
+        <v>1102.299999999999</v>
       </c>
       <c r="Q46" t="n">
-        <v>-3.015468698244433</v>
+        <v>-0.6261701577450186</v>
       </c>
       <c r="R46" t="n">
-        <v>102.4562917297365</v>
+        <v>97.43319520680788</v>
       </c>
       <c r="S46" t="n">
-        <v>-16.29999999999927</v>
+        <v>-16.10000000000036</v>
       </c>
       <c r="T46" t="n">
-        <v>0.1970851275256708</v>
+        <v>0.2332557538143263</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -3524,54 +3524,54 @@
         <v>2024</v>
       </c>
       <c r="G47" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="J47" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>-21842.10000000011</v>
+        <v>-6500.599999999946</v>
       </c>
       <c r="L47" t="n">
-        <v>-13343.90000000007</v>
+        <v>-3269.499999999979</v>
       </c>
       <c r="M47" t="n">
-        <v>2671</v>
+        <v>2813</v>
       </c>
       <c r="N47" t="n">
-        <v>-8498.200000000043</v>
+        <v>-3231.099999999967</v>
       </c>
       <c r="O47" t="n">
-        <v>-341.1000000000004</v>
+        <v>-336.7000000000007</v>
       </c>
       <c r="P47" t="n">
-        <v>874.3999999999996</v>
+        <v>1262</v>
       </c>
       <c r="Q47" t="n">
-        <v>-3.181654810932251</v>
+        <v>-1.148631354425868</v>
       </c>
       <c r="R47" t="n">
-        <v>111.1270231900061</v>
+        <v>103.9146517823215</v>
       </c>
       <c r="S47" t="n">
-        <v>-19.70000000000073</v>
+        <v>-16.5</v>
       </c>
       <c r="T47" t="n">
-        <v>0.3519281168101834</v>
+        <v>0.2072520440810522</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B48" t="n">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -3590,54 +3590,54 @@
         <v>2024</v>
       </c>
       <c r="G48" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I48" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J48" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K48" t="n">
-        <v>-30455.39999999987</v>
+        <v>-7037.199999999906</v>
       </c>
       <c r="L48" t="n">
-        <v>-15237.09999999994</v>
+        <v>-3864.699999999953</v>
       </c>
       <c r="M48" t="n">
-        <v>2740</v>
+        <v>3741</v>
       </c>
       <c r="N48" t="n">
-        <v>-15218.29999999994</v>
+        <v>-3172.499999999953</v>
       </c>
       <c r="O48" t="n">
-        <v>-413</v>
+        <v>-443.5</v>
       </c>
       <c r="P48" t="n">
-        <v>1263.799999999999</v>
+        <v>1287.799999999999</v>
       </c>
       <c r="Q48" t="n">
-        <v>-5.554124087591218</v>
+        <v>-0.8480352846832271</v>
       </c>
       <c r="R48" t="n">
-        <v>100.6596503715313</v>
+        <v>96.20028603333138</v>
       </c>
       <c r="S48" t="n">
-        <v>-18</v>
+        <v>-16.19999999999891</v>
       </c>
       <c r="T48" t="n">
-        <v>0.1755474452554744</v>
+        <v>0.2328254477412457</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B49" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -3656,54 +3656,54 @@
         <v>2024</v>
       </c>
       <c r="G49" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H49" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J49" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K49" t="n">
-        <v>-31347.99999999974</v>
+        <v>-7939.400000000085</v>
       </c>
       <c r="L49" t="n">
-        <v>-16563.99999999986</v>
+        <v>-4940.500000000037</v>
       </c>
       <c r="M49" t="n">
-        <v>4617</v>
+        <v>3194</v>
       </c>
       <c r="N49" t="n">
-        <v>-14783.99999999987</v>
+        <v>-2998.900000000048</v>
       </c>
       <c r="O49" t="n">
-        <v>-384.6999999999998</v>
+        <v>-404.4000000000005</v>
       </c>
       <c r="P49" t="n">
-        <v>763.3999999999996</v>
+        <v>871.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>-3.202079272254684</v>
+        <v>-0.9389167188478547</v>
       </c>
       <c r="R49" t="n">
-        <v>91.77977488639719</v>
+        <v>108.6788712431318</v>
       </c>
       <c r="S49" t="n">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="T49" t="n">
-        <v>0.2802685726662335</v>
+        <v>0.2523481527864747</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -3722,54 +3722,54 @@
         <v>2024</v>
       </c>
       <c r="G50" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H50" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="I50" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J50" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K50" t="n">
-        <v>-31845.59999999988</v>
+        <v>-8226.799999999961</v>
       </c>
       <c r="L50" t="n">
-        <v>-15932.19999999994</v>
+        <v>-4130.79999999998</v>
       </c>
       <c r="M50" t="n">
-        <v>2643</v>
+        <v>4087</v>
       </c>
       <c r="N50" t="n">
-        <v>-15913.39999999994</v>
+        <v>-4095.999999999981</v>
       </c>
       <c r="O50" t="n">
-        <v>-364.9000000000015</v>
+        <v>-416.7999999999993</v>
       </c>
       <c r="P50" t="n">
-        <v>1583.599999999999</v>
+        <v>1315.4</v>
       </c>
       <c r="Q50" t="n">
-        <v>-6.020961029133538</v>
+        <v>-1.002202104232929</v>
       </c>
       <c r="R50" t="n">
-        <v>103.0334415198214</v>
+        <v>85.81511741726024</v>
       </c>
       <c r="S50" t="n">
-        <v>-17.89999999999964</v>
+        <v>-12.79999999999927</v>
       </c>
       <c r="T50" t="n">
-        <v>0.1800983730609156</v>
+        <v>0.228040127232689</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -3788,54 +3788,54 @@
         <v>2024</v>
       </c>
       <c r="G51" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H51" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J51" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K51" t="n">
-        <v>-33381.49999999996</v>
+        <v>-8723.999999999971</v>
       </c>
       <c r="L51" t="n">
-        <v>-16813.89999999998</v>
+        <v>-4361.999999999985</v>
       </c>
       <c r="M51" t="n">
-        <v>6069</v>
+        <v>3229</v>
       </c>
       <c r="N51" t="n">
-        <v>-16567.59999999998</v>
+        <v>-4361.999999999985</v>
       </c>
       <c r="O51" t="n">
-        <v>-416.7999999999993</v>
+        <v>-898.6999999999998</v>
       </c>
       <c r="P51" t="n">
-        <v>660.5</v>
+        <v>1291.099999999999</v>
       </c>
       <c r="Q51" t="n">
-        <v>-2.729873125720873</v>
+        <v>-1.350882626200058</v>
       </c>
       <c r="R51" t="n">
-        <v>77.28553089815055</v>
+        <v>101.3111578864344</v>
       </c>
       <c r="S51" t="n">
-        <v>-12.5</v>
+        <v>-16.10000000000036</v>
       </c>
       <c r="T51" t="n">
-        <v>0.2540781018289669</v>
+        <v>0.1972746980489316</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -3854,54 +3854,54 @@
         <v>2024</v>
       </c>
       <c r="G52" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="H52" t="n">
-        <v>2.600000000000001</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I52" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="J52" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K52" t="n">
-        <v>-38285.99999999986</v>
+        <v>-9105.900000000101</v>
       </c>
       <c r="L52" t="n">
-        <v>-19348.29999999991</v>
+        <v>-4846.400000000046</v>
       </c>
       <c r="M52" t="n">
-        <v>4383</v>
+        <v>2583</v>
       </c>
       <c r="N52" t="n">
-        <v>-18937.69999999995</v>
+        <v>-4259.500000000055</v>
       </c>
       <c r="O52" t="n">
-        <v>-350.5</v>
+        <v>-354.6000000000004</v>
       </c>
       <c r="P52" t="n">
-        <v>842.7999999999993</v>
+        <v>1271.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>-4.320716404289289</v>
+        <v>-1.649051490514927</v>
       </c>
       <c r="R52" t="n">
-        <v>91.26091667258865</v>
+        <v>111.7170832416777</v>
       </c>
       <c r="S52" t="n">
-        <v>-16</v>
+        <v>-17.60000000000036</v>
       </c>
       <c r="T52" t="n">
-        <v>0.2411590234998859</v>
+        <v>0.1835075493612079</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B53" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -3920,54 +3920,54 @@
         <v>2024</v>
       </c>
       <c r="G53" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="I53" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K53" t="n">
-        <v>-45229.59999999985</v>
+        <v>-9114.100000000009</v>
       </c>
       <c r="L53" t="n">
-        <v>-22632.19999999992</v>
+        <v>-6490.300000000012</v>
       </c>
       <c r="M53" t="n">
-        <v>4713</v>
+        <v>2531</v>
       </c>
       <c r="N53" t="n">
-        <v>-22597.39999999992</v>
+        <v>-2623.799999999997</v>
       </c>
       <c r="O53" t="n">
-        <v>-366.8999999999996</v>
+        <v>-354.7000000000007</v>
       </c>
       <c r="P53" t="n">
-        <v>1241.799999999999</v>
+        <v>867.3999999999996</v>
       </c>
       <c r="Q53" t="n">
-        <v>-4.794695523021414</v>
+        <v>-1.036665349664163</v>
       </c>
       <c r="R53" t="n">
-        <v>80.29056365612951</v>
+        <v>118.6552318476787</v>
       </c>
       <c r="S53" t="n">
-        <v>-13.29999999999927</v>
+        <v>-17.89999999999964</v>
       </c>
       <c r="T53" t="n">
-        <v>0.2287290473159347</v>
+        <v>0.364282892137495</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3986,54 +3986,54 @@
         <v>2024</v>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="H54" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J54" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="K54" t="n">
-        <v>-47511.59999999991</v>
+        <v>-9341.599999999891</v>
       </c>
       <c r="L54" t="n">
-        <v>-23755.79999999996</v>
+        <v>-4674.299999999944</v>
       </c>
       <c r="M54" t="n">
-        <v>3579</v>
+        <v>2821</v>
       </c>
       <c r="N54" t="n">
-        <v>-23755.79999999996</v>
+        <v>-4667.299999999947</v>
       </c>
       <c r="O54" t="n">
-        <v>-412.7999999999993</v>
+        <v>-336.7000000000007</v>
       </c>
       <c r="P54" t="n">
-        <v>1108.1</v>
+        <v>1262</v>
       </c>
       <c r="Q54" t="n">
-        <v>-6.637552388935444</v>
+        <v>-1.654484225451949</v>
       </c>
       <c r="R54" t="n">
-        <v>77.34953565353167</v>
+        <v>105.262085960673</v>
       </c>
       <c r="S54" t="n">
-        <v>-16.20000000000073</v>
+        <v>-16.39999999999964</v>
       </c>
       <c r="T54" t="n">
-        <v>0.1824531992176586</v>
+        <v>0.2002835873803616</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B55" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -4052,54 +4052,54 @@
         <v>2024</v>
       </c>
       <c r="G55" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H55" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="I55" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J55" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="K55" t="n">
-        <v>-49961.20000000004</v>
+        <v>-11561.50000000003</v>
       </c>
       <c r="L55" t="n">
-        <v>-24998.00000000002</v>
+        <v>-6376.800000000029</v>
       </c>
       <c r="M55" t="n">
-        <v>3449</v>
+        <v>2979</v>
       </c>
       <c r="N55" t="n">
-        <v>-24963.20000000002</v>
+        <v>-5184.699999999996</v>
       </c>
       <c r="O55" t="n">
-        <v>-289.2000000000007</v>
+        <v>-364.9000000000015</v>
       </c>
       <c r="P55" t="n">
-        <v>1213.4</v>
+        <v>1289.299999999999</v>
       </c>
       <c r="Q55" t="n">
-        <v>-7.237808060307342</v>
+        <v>-1.740416247062772</v>
       </c>
       <c r="R55" t="n">
-        <v>79.19020693865274</v>
+        <v>103.8486735929273</v>
       </c>
       <c r="S55" t="n">
-        <v>-20.40000000000146</v>
+        <v>-16.20000000000073</v>
       </c>
       <c r="T55" t="n">
-        <v>0.1751232241229342</v>
+        <v>0.18932527693857</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B56" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -4118,111 +4118,1497 @@
         <v>2024</v>
       </c>
       <c r="G56" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H56" t="n">
         <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="J56" t="n">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="K56" t="n">
-        <v>-123097.4</v>
+        <v>-13887.59999999996</v>
       </c>
       <c r="L56" t="n">
-        <v>-61686.19999999998</v>
+        <v>-7678.299999999981</v>
       </c>
       <c r="M56" t="n">
-        <v>4471</v>
+        <v>2961</v>
       </c>
       <c r="N56" t="n">
-        <v>-61411.19999999998</v>
+        <v>-6209.299999999976</v>
       </c>
       <c r="O56" t="n">
-        <v>-321.1999999999998</v>
+        <v>-898.6999999999998</v>
       </c>
       <c r="P56" t="n">
-        <v>782.7999999999993</v>
+        <v>1294.199999999999</v>
       </c>
       <c r="Q56" t="n">
-        <v>-13.735450682174</v>
+        <v>-2.097028031070576</v>
       </c>
       <c r="R56" t="n">
-        <v>68.7388597282536</v>
+        <v>104.6448988293842</v>
       </c>
       <c r="S56" t="n">
-        <v>-26</v>
+        <v>-16.20000000000073</v>
       </c>
       <c r="T56" t="n">
-        <v>0.2153880563632297</v>
+        <v>0.1982438365417089</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B57" t="n">
+        <v>41</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G57" t="n">
+        <v>90</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I57" t="n">
+        <v>60</v>
+      </c>
+      <c r="J57" t="n">
+        <v>100</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-17333.09999999985</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-8691.199999999921</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3093</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-8641.899999999929</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-413</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1291.599999999999</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-2.794018752020669</v>
+      </c>
+      <c r="R57" t="n">
+        <v>100.5380908931953</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-16.39999999999964</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.196249595861623</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B58" t="n">
+        <v>51</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G58" t="n">
+        <v>75</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I58" t="n">
+        <v>65</v>
+      </c>
+      <c r="J58" t="n">
+        <v>80</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-18719.99999999991</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-9616.299999999961</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3019</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-9103.699999999944</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-364.9000000000015</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1289.299999999999</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-3.015468698244433</v>
+      </c>
+      <c r="R58" t="n">
+        <v>102.4562917297365</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-16.29999999999927</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.1970851275256708</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B59" t="n">
+        <v>95</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G59" t="n">
+        <v>60</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I59" t="n">
+        <v>80</v>
+      </c>
+      <c r="J59" t="n">
+        <v>60</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-21469.50000000022</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-10948.8000000001</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2506</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-10520.70000000012</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-443.5</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1251.700000000001</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-4.19820430965687</v>
+      </c>
+      <c r="R59" t="n">
+        <v>109.862573048656</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-17.89999999999964</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.1715881883479649</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B60" t="n">
+        <v>26</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G60" t="n">
+        <v>35</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>80</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-21842.10000000011</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-13343.90000000007</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2671</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-8498.200000000043</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-341.1000000000004</v>
+      </c>
+      <c r="P60" t="n">
+        <v>874.3999999999996</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-3.181654810932251</v>
+      </c>
+      <c r="R60" t="n">
+        <v>111.1270231900061</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-19.70000000000073</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.3519281168101834</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B61" t="n">
+        <v>85</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G61" t="n">
+        <v>95</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I61" t="n">
+        <v>35</v>
+      </c>
+      <c r="J61" t="n">
+        <v>60</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-27159.99999999991</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-13597.39999999995</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4663</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-13562.59999999995</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-416.7999999999993</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1241.799999999999</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-2.9085567231396</v>
+      </c>
+      <c r="R61" t="n">
+        <v>83.47640839701262</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-13.19999999999891</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.2320394595753807</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B62" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G62" t="n">
+        <v>100</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" t="n">
+        <v>80</v>
+      </c>
+      <c r="J62" t="n">
+        <v>40</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-30455.39999999987</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-15237.09999999994</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2740</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-15218.29999999994</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-413</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1263.799999999999</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-5.554124087591218</v>
+      </c>
+      <c r="R62" t="n">
+        <v>100.6596503715313</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-18</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.1755474452554744</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B63" t="n">
+        <v>43</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G63" t="n">
+        <v>40</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I63" t="n">
+        <v>15</v>
+      </c>
+      <c r="J63" t="n">
+        <v>80</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-31347.99999999974</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-16563.99999999986</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4617</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-14783.99999999987</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-384.6999999999998</v>
+      </c>
+      <c r="P63" t="n">
+        <v>763.3999999999996</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-3.202079272254684</v>
+      </c>
+      <c r="R63" t="n">
+        <v>91.77977488639719</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.2802685726662335</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B64" t="n">
+        <v>15</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G64" t="n">
+        <v>40</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I64" t="n">
+        <v>90</v>
+      </c>
+      <c r="J64" t="n">
+        <v>40</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-31845.59999999988</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-15932.19999999994</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2643</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-15913.39999999994</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-364.9000000000015</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1583.599999999999</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-6.020961029133538</v>
+      </c>
+      <c r="R64" t="n">
+        <v>103.0334415198214</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-17.89999999999964</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.1800983730609156</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B65" t="n">
+        <v>37</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G65" t="n">
+        <v>90</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I65" t="n">
+        <v>20</v>
+      </c>
+      <c r="J65" t="n">
+        <v>60</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-33381.49999999996</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-16813.89999999998</v>
+      </c>
+      <c r="M65" t="n">
+        <v>6069</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-16567.59999999998</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-416.7999999999993</v>
+      </c>
+      <c r="P65" t="n">
+        <v>660.5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-2.729873125720873</v>
+      </c>
+      <c r="R65" t="n">
+        <v>77.28553089815055</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.2540781018289669</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B66" t="n">
+        <v>29</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G66" t="n">
+        <v>25</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I66" t="n">
+        <v>30</v>
+      </c>
+      <c r="J66" t="n">
+        <v>60</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-38285.99999999986</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-19348.29999999991</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4383</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-18937.69999999995</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-350.5</v>
+      </c>
+      <c r="P66" t="n">
+        <v>842.7999999999993</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-4.320716404289289</v>
+      </c>
+      <c r="R66" t="n">
+        <v>91.26091667258865</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.2411590234998859</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B67" t="n">
+        <v>80</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G67" t="n">
+        <v>25</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I67" t="n">
+        <v>50</v>
+      </c>
+      <c r="J67" t="n">
+        <v>40</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-41162.79999999994</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-20584.89999999997</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3321</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-20577.89999999998</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-336.7000000000007</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1279.799999999999</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-6.196296296296289</v>
+      </c>
+      <c r="R67" t="n">
+        <v>90.21478697059304</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-17</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.2002408912978019</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B68" t="n">
+        <v>40</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G68" t="n">
+        <v>40</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>35</v>
+      </c>
+      <c r="J68" t="n">
+        <v>40</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-45229.59999999985</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-22632.19999999992</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4713</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-22597.39999999992</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-366.8999999999996</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1241.799999999999</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>-4.794695523021414</v>
+      </c>
+      <c r="R68" t="n">
+        <v>80.29056365612951</v>
+      </c>
+      <c r="S68" t="n">
+        <v>-13.29999999999927</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.2287290473159347</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B69" t="n">
+        <v>74</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G69" t="n">
+        <v>65</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I69" t="n">
+        <v>40</v>
+      </c>
+      <c r="J69" t="n">
+        <v>40</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-45298.59999999995</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-22650.49999999997</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3537</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-22648.09999999998</v>
+      </c>
+      <c r="O69" t="n">
+        <v>-443.5</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1166.200000000001</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>-6.40319479785128</v>
+      </c>
+      <c r="R69" t="n">
+        <v>94.47970923803655</v>
+      </c>
+      <c r="S69" t="n">
+        <v>-19</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.2018659881255301</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B70" t="n">
+        <v>56</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I70" t="n">
+        <v>70</v>
+      </c>
+      <c r="J70" t="n">
+        <v>20</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-47511.59999999991</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-23755.79999999996</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3579</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-23755.79999999996</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-412.7999999999993</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1108.1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>-6.637552388935444</v>
+      </c>
+      <c r="R70" t="n">
+        <v>77.34953565353167</v>
+      </c>
+      <c r="S70" t="n">
+        <v>-16.20000000000073</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.1824531992176586</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B71" t="n">
+        <v>60</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G71" t="n">
+        <v>35</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I71" t="n">
+        <v>65</v>
+      </c>
+      <c r="J71" t="n">
+        <v>20</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-49961.20000000004</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-24998.00000000002</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3449</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-24963.20000000002</v>
+      </c>
+      <c r="O71" t="n">
+        <v>-289.2000000000007</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1213.4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>-7.237808060307342</v>
+      </c>
+      <c r="R71" t="n">
+        <v>79.19020693865274</v>
+      </c>
+      <c r="S71" t="n">
+        <v>-20.40000000000146</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.1751232241229342</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B72" t="n">
+        <v>93</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G72" t="n">
+        <v>45</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I72" t="n">
+        <v>35</v>
+      </c>
+      <c r="J72" t="n">
+        <v>40</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-57632.29999999987</v>
+      </c>
+      <c r="L72" t="n">
+        <v>-28870.89999999993</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3825</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-28761.39999999994</v>
+      </c>
+      <c r="O72" t="n">
+        <v>-443.5</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1104.200000000001</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>-7.519320261437893</v>
+      </c>
+      <c r="R72" t="n">
+        <v>89.90760454395432</v>
+      </c>
+      <c r="S72" t="n">
+        <v>-19.39999999999964</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.2047058823529412</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B73" t="n">
+        <v>87</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G73" t="n">
+        <v>25</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I73" t="n">
+        <v>85</v>
+      </c>
+      <c r="J73" t="n">
+        <v>20</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-57960.79999999996</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-28980.39999999998</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2751</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-28980.39999999998</v>
+      </c>
+      <c r="O73" t="n">
+        <v>-336.7000000000007</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1147.6</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>-10.53449654671028</v>
+      </c>
+      <c r="R73" t="n">
+        <v>83.85250564603326</v>
+      </c>
+      <c r="S73" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.1450381679389313</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B74" t="n">
+        <v>99</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G74" t="n">
+        <v>80</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I74" t="n">
+        <v>10</v>
+      </c>
+      <c r="J74" t="n">
+        <v>40</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-66566.79999999967</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-33942.59999999982</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4618</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-32624.19999999984</v>
+      </c>
+      <c r="O74" t="n">
+        <v>-336.7000000000007</v>
+      </c>
+      <c r="P74" t="n">
+        <v>815.7000000000007</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>-7.064573408401872</v>
+      </c>
+      <c r="R74" t="n">
+        <v>86.98180661834949</v>
+      </c>
+      <c r="S74" t="n">
+        <v>-19.80000000000109</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.2644001732351667</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B75" t="n">
+        <v>97</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G75" t="n">
+        <v>80</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I75" t="n">
+        <v>45</v>
+      </c>
+      <c r="J75" t="n">
+        <v>20</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-83682.80000000003</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-41850.80000000002</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3427</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-41832.00000000001</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-413</v>
+      </c>
+      <c r="P75" t="n">
+        <v>725</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>-12.20659468923257</v>
+      </c>
+      <c r="R75" t="n">
+        <v>77.6266766718983</v>
+      </c>
+      <c r="S75" t="n">
+        <v>-24.19999999999891</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.1421067989495185</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B76" t="n">
+        <v>78</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G76" t="n">
+        <v>45</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" t="n">
+        <v>35</v>
+      </c>
+      <c r="J76" t="n">
+        <v>20</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-95907.80000000025</v>
+      </c>
+      <c r="L76" t="n">
+        <v>-47953.90000000013</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3825</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-47953.90000000013</v>
+      </c>
+      <c r="O76" t="n">
+        <v>-443.5</v>
+      </c>
+      <c r="P76" t="n">
+        <v>700.8000000000011</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>-12.53696732026147</v>
+      </c>
+      <c r="R76" t="n">
+        <v>77.13096441329988</v>
+      </c>
+      <c r="S76" t="n">
+        <v>-24.89999999999964</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.1495424836601307</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B77" t="n">
+        <v>55</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G77" t="n">
+        <v>40</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" t="n">
+        <v>5</v>
+      </c>
+      <c r="J77" t="n">
+        <v>20</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-123097.4</v>
+      </c>
+      <c r="L77" t="n">
+        <v>-61686.19999999998</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4471</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-61411.19999999998</v>
+      </c>
+      <c r="O77" t="n">
+        <v>-321.1999999999998</v>
+      </c>
+      <c r="P77" t="n">
+        <v>782.7999999999993</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>-13.735450682174</v>
+      </c>
+      <c r="R77" t="n">
+        <v>68.7388597282536</v>
+      </c>
+      <c r="S77" t="n">
+        <v>-26</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.2153880563632297</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B78" t="n">
         <v>44</v>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>NSDQ</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>M30</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G78" t="n">
         <v>45</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H78" t="n">
         <v>1.8</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I78" t="n">
         <v>20</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J78" t="n">
         <v>20</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K78" t="n">
         <v>-124050.2000000001</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L78" t="n">
         <v>-62092.70000000003</v>
       </c>
-      <c r="M57" t="n">
+      <c r="M78" t="n">
         <v>6137</v>
       </c>
-      <c r="N57" t="n">
+      <c r="N78" t="n">
         <v>-61957.50000000003</v>
       </c>
-      <c r="O57" t="n">
+      <c r="O78" t="n">
         <v>-379.2999999999993</v>
       </c>
-      <c r="P57" t="n">
+      <c r="P78" t="n">
         <v>660.5</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="Q78" t="n">
         <v>-10.09573081310087</v>
       </c>
-      <c r="R57" t="n">
+      <c r="R78" t="n">
         <v>64.55013712906187</v>
       </c>
-      <c r="S57" t="n">
+      <c r="S78" t="n">
         <v>-21.20000000000073</v>
       </c>
-      <c r="T57" t="n">
+      <c r="T78" t="n">
         <v>0.1991200912497963</v>
       </c>
     </row>
